--- a/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.649884555669814</v>
+        <v>2.649884555669587</v>
       </c>
       <c r="C2">
-        <v>1.22380377878261</v>
+        <v>1.223803778782894</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03601960652698999</v>
+        <v>0.03601960652699177</v>
       </c>
       <c r="F2">
-        <v>2.241282752265604</v>
+        <v>2.241282752265619</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8253609840261191</v>
+        <v>0.8253609840261404</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.278456932725476</v>
+        <v>2.278456932725589</v>
       </c>
       <c r="C3">
         <v>1.049536296239097</v>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03123519366793026</v>
+        <v>0.03123519366793737</v>
       </c>
       <c r="F3">
         <v>1.94641730251125</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.403527381372115</v>
+        <v>1.403527381372101</v>
       </c>
       <c r="I3">
-        <v>0.1928699466038637</v>
+        <v>0.1928699466038672</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.054392783753656</v>
+        <v>2.054392783753769</v>
       </c>
       <c r="C4">
-        <v>0.9447871751254979</v>
+        <v>0.9447871751250716</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0283131036951243</v>
+        <v>0.0283131036951314</v>
       </c>
       <c r="F4">
         <v>1.769732105850252</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.307597383833638</v>
+        <v>1.307597383833595</v>
       </c>
       <c r="I4">
-        <v>0.18526586927252</v>
+        <v>0.1852658692725271</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.963925957425801</v>
+        <v>1.963925957425943</v>
       </c>
       <c r="C5">
-        <v>0.9025767052574452</v>
+        <v>0.9025767052576157</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0271256454096207</v>
+        <v>0.02712564540956564</v>
       </c>
       <c r="F5">
-        <v>1.698685444550563</v>
+        <v>1.698685444550549</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.269339874733419</v>
+        <v>1.26933987473339</v>
       </c>
       <c r="I5">
-        <v>0.1822849695348197</v>
+        <v>0.1822849695348161</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6124487271333408</v>
+        <v>0.6124487271333336</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.948950358572546</v>
+        <v>1.948950358572603</v>
       </c>
       <c r="C6">
-        <v>0.8955939447479011</v>
+        <v>0.8955939447477022</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02692865252152821</v>
+        <v>0.02692865252149801</v>
       </c>
       <c r="F6">
         <v>1.68694187968056</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.263034520787542</v>
+        <v>1.263034520787556</v>
       </c>
       <c r="I6">
-        <v>0.1817966835588507</v>
+        <v>0.1817966835588223</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6077948772396553</v>
+        <v>0.6077948772396411</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.053169514256041</v>
+        <v>2.053169514256069</v>
       </c>
       <c r="C7">
-        <v>0.9442160970318128</v>
+        <v>0.9442160970316138</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0282970765463979</v>
+        <v>0.02829707654639968</v>
       </c>
       <c r="F7">
-        <v>1.768770262821718</v>
+        <v>1.768770262821704</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.307078193182264</v>
+        <v>1.307078193182278</v>
       </c>
       <c r="I7">
-        <v>0.1852252102232868</v>
+        <v>0.185225210223269</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6401774448173327</v>
+        <v>0.6401774448173398</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -649,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03436634055364074</v>
+        <v>0.03436634055367627</v>
       </c>
       <c r="F8">
-        <v>2.138616975255488</v>
+        <v>2.138616975255502</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.509065869977022</v>
+        <v>1.509065869977036</v>
       </c>
       <c r="I8">
-        <v>0.2014304703381136</v>
+        <v>0.2014304703381171</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04642084144522585</v>
+        <v>0.04642084144525427</v>
       </c>
       <c r="F9">
-        <v>2.90577587039823</v>
+        <v>2.905775870398259</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>1.940957143320887</v>
       </c>
       <c r="I9">
-        <v>0.2382290451932292</v>
+        <v>0.2382290451932505</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.081719659264131</v>
+        <v>1.081719659264124</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.219588863850561</v>
+        <v>4.219588863850504</v>
       </c>
       <c r="C10">
         <v>1.968514883215505</v>
@@ -725,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05541438887583894</v>
+        <v>0.0554143888758496</v>
       </c>
       <c r="F10">
-        <v>3.506544740796642</v>
+        <v>3.506544740796613</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.289483750682578</v>
+        <v>2.289483750682592</v>
       </c>
       <c r="I10">
-        <v>0.2696473194831555</v>
+        <v>0.2696473194831768</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.310441045301189</v>
+        <v>1.310441045301204</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.568870537812813</v>
+        <v>4.56887053781287</v>
       </c>
       <c r="C11">
-        <v>2.135980324132333</v>
+        <v>2.135980324132049</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.059545972930934</v>
+        <v>0.05954597293093755</v>
       </c>
       <c r="F11">
-        <v>3.791001746775692</v>
+        <v>3.791001746775663</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.457350133893044</v>
+        <v>2.45735013389303</v>
       </c>
       <c r="I11">
-        <v>0.2852569679591994</v>
+        <v>0.2852569679591852</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.417923987962837</v>
+        <v>1.417923987962808</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.703237385599209</v>
+        <v>4.70323738559938</v>
       </c>
       <c r="C12">
-        <v>2.200571236453015</v>
+        <v>2.2005712364533</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06111719708449215</v>
+        <v>0.06111719708450636</v>
       </c>
       <c r="F12">
         <v>3.900630588470761</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.522512386896054</v>
+        <v>2.52251238689604</v>
       </c>
       <c r="I12">
-        <v>0.2913949484814609</v>
+        <v>0.2913949484814751</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.674198918578384</v>
+        <v>4.67419891857827</v>
       </c>
       <c r="C13">
-        <v>2.186604391617891</v>
+        <v>2.186604391618005</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06077849428224269</v>
+        <v>0.06077849428220006</v>
       </c>
       <c r="F13">
         <v>3.876929648141015</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.508403059954333</v>
+        <v>2.508403059954347</v>
       </c>
       <c r="I13">
-        <v>0.2900622559288024</v>
+        <v>0.2900622559287811</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.579880474385277</v>
+        <v>4.579880474385334</v>
       </c>
       <c r="C14">
-        <v>2.141269360319768</v>
+        <v>2.1412693603192</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05967509940055393</v>
+        <v>0.05967509940050064</v>
       </c>
       <c r="F14">
-        <v>3.799980745363683</v>
+        <v>3.799980745363655</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.46267748980857</v>
+        <v>2.462677489808556</v>
       </c>
       <c r="I14">
-        <v>0.2857571544097013</v>
+        <v>0.2857571544097368</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.4213091121524</v>
+        <v>1.421309112152372</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.5223936471142</v>
+        <v>4.522393647114313</v>
       </c>
       <c r="C15">
-        <v>2.113660300851507</v>
+        <v>2.113660300851905</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05900013514049363</v>
+        <v>0.05900013514055757</v>
       </c>
       <c r="F15">
-        <v>3.753106131086184</v>
+        <v>3.753106131086156</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.434885273703728</v>
+        <v>2.434885273703713</v>
       </c>
       <c r="I15">
-        <v>0.283150945716848</v>
+        <v>0.2831509457168622</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.403632175518155</v>
+        <v>1.40363217551814</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.197034658077143</v>
+        <v>4.197034658077257</v>
       </c>
       <c r="C16">
-        <v>1.957722818814034</v>
+        <v>1.957722818813977</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05514526670621578</v>
+        <v>0.05514526670625131</v>
       </c>
       <c r="F16">
         <v>3.488204496273994</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.278721626188229</v>
+        <v>2.278721626188272</v>
       </c>
       <c r="I16">
-        <v>0.2686567497971097</v>
+        <v>0.2686567497970742</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.303494470578073</v>
+        <v>1.303494470578087</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,7 +985,7 @@
         <v>4.000759386156233</v>
       </c>
       <c r="C17">
-        <v>1.863917639231317</v>
+        <v>1.86391763923092</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.243012407943482</v>
+        <v>1.243012407943496</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.888971201517506</v>
+        <v>3.888971201517677</v>
       </c>
       <c r="C18">
         <v>1.810580655299816</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05144123580994275</v>
+        <v>0.05144123580989302</v>
       </c>
       <c r="F18">
-        <v>3.238078559795127</v>
+        <v>3.238078559795156</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.132702316829551</v>
+        <v>2.13270231682958</v>
       </c>
       <c r="I18">
-        <v>0.2553422904028366</v>
+        <v>0.255342290402865</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.208540992662826</v>
+        <v>1.208540992662819</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.851300896734301</v>
+        <v>3.851300896734131</v>
       </c>
       <c r="C19">
-        <v>1.792621875341922</v>
+        <v>1.792621875341638</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05098471643105285</v>
+        <v>0.05098471643101377</v>
       </c>
       <c r="F19">
         <v>3.207544398718483</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.11497483731803</v>
+        <v>2.114974837318016</v>
       </c>
       <c r="I19">
-        <v>0.2537420848059284</v>
+        <v>0.2537420848059426</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.196920976320044</v>
+        <v>1.196920976320037</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.021536438050418</v>
+        <v>4.021536438050646</v>
       </c>
       <c r="C20">
-        <v>1.873838070888951</v>
+        <v>1.873838070888439</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05304156373088986</v>
+        <v>0.05304156373088276</v>
       </c>
       <c r="F20">
-        <v>3.345622721332063</v>
+        <v>3.345622721332035</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.195310930295136</v>
+        <v>2.195310930295065</v>
       </c>
       <c r="I20">
-        <v>0.2610221930881025</v>
+        <v>0.2610221930881522</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.249417392513635</v>
+        <v>1.249417392513656</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.60752373077014</v>
+        <v>4.607523730770311</v>
       </c>
       <c r="C21">
-        <v>2.15455159269402</v>
+        <v>2.154551592694133</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0599990046836254</v>
+        <v>0.0599990046836183</v>
       </c>
       <c r="F21">
         <v>3.822527949573583</v>
@@ -1155,7 +1155,7 @@
         <v>2.476062661765155</v>
       </c>
       <c r="I21">
-        <v>0.2870151730418158</v>
+        <v>0.2870151730418584</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.002974999333901</v>
+        <v>5.002974999333958</v>
       </c>
       <c r="C22">
-        <v>2.344992174507411</v>
+        <v>2.344992174507752</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06458547766059652</v>
+        <v>0.06458547766060718</v>
       </c>
       <c r="F22">
         <v>4.145532896323857</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.668998783839626</v>
+        <v>2.668998783839584</v>
       </c>
       <c r="I22">
-        <v>0.3053488567373392</v>
+        <v>0.3053488567372753</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.551254550411485</v>
+        <v>1.5512545504115</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.79063147213617</v>
+        <v>4.790631472136113</v>
       </c>
       <c r="C23">
-        <v>2.242632040977924</v>
+        <v>2.242632040977639</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06213368869553548</v>
+        <v>0.06213368869556746</v>
       </c>
       <c r="F23">
-        <v>3.971988658058848</v>
+        <v>3.971988658058905</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>2.565064289752584</v>
       </c>
       <c r="I23">
-        <v>0.2954263210735775</v>
+        <v>0.2954263210735846</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.486071595031717</v>
+        <v>1.486071595031731</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.012139880150642</v>
+        <v>4.012139880150471</v>
       </c>
       <c r="C24">
         <v>1.869351212420327</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05292844714504241</v>
+        <v>0.0529284471450886</v>
       </c>
       <c r="F24">
-        <v>3.337995136546425</v>
+        <v>3.337995136546368</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.190861700321605</v>
+        <v>2.190861700321577</v>
       </c>
       <c r="I24">
-        <v>0.2606171072071817</v>
+        <v>0.2606171072071604</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.246520770553126</v>
+        <v>1.246520770553133</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.213616177320546</v>
+        <v>3.21361617732066</v>
       </c>
       <c r="C25">
-        <v>1.48974613936781</v>
+        <v>1.489746139369061</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04313905729190992</v>
+        <v>0.04313905729190637</v>
       </c>
       <c r="F25">
-        <v>2.692649381253091</v>
+        <v>2.692649381253119</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.819396785394531</v>
+        <v>1.819396785394574</v>
       </c>
       <c r="I25">
-        <v>0.2276125431168552</v>
+        <v>0.2276125431168872</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9999311126377464</v>
+        <v>0.9999311126377677</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.649884555669587</v>
+        <v>2.649884555669814</v>
       </c>
       <c r="C2">
-        <v>1.223803778782894</v>
+        <v>1.22380377878261</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03601960652699177</v>
+        <v>0.03601960652698999</v>
       </c>
       <c r="F2">
-        <v>2.241282752265619</v>
+        <v>2.241282752265604</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8253609840261404</v>
+        <v>0.8253609840261191</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.278456932725589</v>
+        <v>2.278456932725476</v>
       </c>
       <c r="C3">
         <v>1.049536296239097</v>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03123519366793737</v>
+        <v>0.03123519366793026</v>
       </c>
       <c r="F3">
         <v>1.94641730251125</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.403527381372101</v>
+        <v>1.403527381372115</v>
       </c>
       <c r="I3">
-        <v>0.1928699466038672</v>
+        <v>0.1928699466038637</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.054392783753769</v>
+        <v>2.054392783753656</v>
       </c>
       <c r="C4">
-        <v>0.9447871751250716</v>
+        <v>0.9447871751254979</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0283131036951314</v>
+        <v>0.0283131036951243</v>
       </c>
       <c r="F4">
         <v>1.769732105850252</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.307597383833595</v>
+        <v>1.307597383833638</v>
       </c>
       <c r="I4">
-        <v>0.1852658692725271</v>
+        <v>0.18526586927252</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.963925957425943</v>
+        <v>1.963925957425801</v>
       </c>
       <c r="C5">
-        <v>0.9025767052576157</v>
+        <v>0.9025767052574452</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02712564540956564</v>
+        <v>0.0271256454096207</v>
       </c>
       <c r="F5">
-        <v>1.698685444550549</v>
+        <v>1.698685444550563</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.26933987473339</v>
+        <v>1.269339874733419</v>
       </c>
       <c r="I5">
-        <v>0.1822849695348161</v>
+        <v>0.1822849695348197</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6124487271333336</v>
+        <v>0.6124487271333408</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.948950358572603</v>
+        <v>1.948950358572546</v>
       </c>
       <c r="C6">
-        <v>0.8955939447477022</v>
+        <v>0.8955939447479011</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02692865252149801</v>
+        <v>0.02692865252152821</v>
       </c>
       <c r="F6">
         <v>1.68694187968056</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.263034520787556</v>
+        <v>1.263034520787542</v>
       </c>
       <c r="I6">
-        <v>0.1817966835588223</v>
+        <v>0.1817966835588507</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6077948772396411</v>
+        <v>0.6077948772396553</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.053169514256069</v>
+        <v>2.053169514256041</v>
       </c>
       <c r="C7">
-        <v>0.9442160970316138</v>
+        <v>0.9442160970318128</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02829707654639968</v>
+        <v>0.0282970765463979</v>
       </c>
       <c r="F7">
-        <v>1.768770262821704</v>
+        <v>1.768770262821718</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.307078193182278</v>
+        <v>1.307078193182264</v>
       </c>
       <c r="I7">
-        <v>0.185225210223269</v>
+        <v>0.1852252102232868</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6401774448173398</v>
+        <v>0.6401774448173327</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -649,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03436634055367627</v>
+        <v>0.03436634055364074</v>
       </c>
       <c r="F8">
-        <v>2.138616975255502</v>
+        <v>2.138616975255488</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.509065869977036</v>
+        <v>1.509065869977022</v>
       </c>
       <c r="I8">
-        <v>0.2014304703381171</v>
+        <v>0.2014304703381136</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04642084144525427</v>
+        <v>0.04642084144522585</v>
       </c>
       <c r="F9">
-        <v>2.905775870398259</v>
+        <v>2.90577587039823</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>1.940957143320887</v>
       </c>
       <c r="I9">
-        <v>0.2382290451932505</v>
+        <v>0.2382290451932292</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.081719659264124</v>
+        <v>1.081719659264131</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.219588863850504</v>
+        <v>4.219588863850561</v>
       </c>
       <c r="C10">
         <v>1.968514883215505</v>
@@ -725,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0554143888758496</v>
+        <v>0.05541438887583894</v>
       </c>
       <c r="F10">
-        <v>3.506544740796613</v>
+        <v>3.506544740796642</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.289483750682592</v>
+        <v>2.289483750682578</v>
       </c>
       <c r="I10">
-        <v>0.2696473194831768</v>
+        <v>0.2696473194831555</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.310441045301204</v>
+        <v>1.310441045301189</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.56887053781287</v>
+        <v>4.568870537812813</v>
       </c>
       <c r="C11">
-        <v>2.135980324132049</v>
+        <v>2.135980324132333</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05954597293093755</v>
+        <v>0.059545972930934</v>
       </c>
       <c r="F11">
-        <v>3.791001746775663</v>
+        <v>3.791001746775692</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.45735013389303</v>
+        <v>2.457350133893044</v>
       </c>
       <c r="I11">
-        <v>0.2852569679591852</v>
+        <v>0.2852569679591994</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.417923987962808</v>
+        <v>1.417923987962837</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.70323738559938</v>
+        <v>4.703237385599209</v>
       </c>
       <c r="C12">
-        <v>2.2005712364533</v>
+        <v>2.200571236453015</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06111719708450636</v>
+        <v>0.06111719708449215</v>
       </c>
       <c r="F12">
         <v>3.900630588470761</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.52251238689604</v>
+        <v>2.522512386896054</v>
       </c>
       <c r="I12">
-        <v>0.2913949484814751</v>
+        <v>0.2913949484814609</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.67419891857827</v>
+        <v>4.674198918578384</v>
       </c>
       <c r="C13">
-        <v>2.186604391618005</v>
+        <v>2.186604391617891</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06077849428220006</v>
+        <v>0.06077849428224269</v>
       </c>
       <c r="F13">
         <v>3.876929648141015</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.508403059954347</v>
+        <v>2.508403059954333</v>
       </c>
       <c r="I13">
-        <v>0.2900622559287811</v>
+        <v>0.2900622559288024</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.579880474385334</v>
+        <v>4.579880474385277</v>
       </c>
       <c r="C14">
-        <v>2.1412693603192</v>
+        <v>2.141269360319768</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05967509940050064</v>
+        <v>0.05967509940055393</v>
       </c>
       <c r="F14">
-        <v>3.799980745363655</v>
+        <v>3.799980745363683</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.462677489808556</v>
+        <v>2.46267748980857</v>
       </c>
       <c r="I14">
-        <v>0.2857571544097368</v>
+        <v>0.2857571544097013</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.421309112152372</v>
+        <v>1.4213091121524</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.522393647114313</v>
+        <v>4.5223936471142</v>
       </c>
       <c r="C15">
-        <v>2.113660300851905</v>
+        <v>2.113660300851507</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05900013514055757</v>
+        <v>0.05900013514049363</v>
       </c>
       <c r="F15">
-        <v>3.753106131086156</v>
+        <v>3.753106131086184</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.434885273703713</v>
+        <v>2.434885273703728</v>
       </c>
       <c r="I15">
-        <v>0.2831509457168622</v>
+        <v>0.283150945716848</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.40363217551814</v>
+        <v>1.403632175518155</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.197034658077257</v>
+        <v>4.197034658077143</v>
       </c>
       <c r="C16">
-        <v>1.957722818813977</v>
+        <v>1.957722818814034</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05514526670625131</v>
+        <v>0.05514526670621578</v>
       </c>
       <c r="F16">
         <v>3.488204496273994</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.278721626188272</v>
+        <v>2.278721626188229</v>
       </c>
       <c r="I16">
-        <v>0.2686567497970742</v>
+        <v>0.2686567497971097</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.303494470578087</v>
+        <v>1.303494470578073</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,7 +985,7 @@
         <v>4.000759386156233</v>
       </c>
       <c r="C17">
-        <v>1.86391763923092</v>
+        <v>1.863917639231317</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.243012407943496</v>
+        <v>1.243012407943482</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.888971201517677</v>
+        <v>3.888971201517506</v>
       </c>
       <c r="C18">
         <v>1.810580655299816</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05144123580989302</v>
+        <v>0.05144123580994275</v>
       </c>
       <c r="F18">
-        <v>3.238078559795156</v>
+        <v>3.238078559795127</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.13270231682958</v>
+        <v>2.132702316829551</v>
       </c>
       <c r="I18">
-        <v>0.255342290402865</v>
+        <v>0.2553422904028366</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.208540992662819</v>
+        <v>1.208540992662826</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.851300896734131</v>
+        <v>3.851300896734301</v>
       </c>
       <c r="C19">
-        <v>1.792621875341638</v>
+        <v>1.792621875341922</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05098471643101377</v>
+        <v>0.05098471643105285</v>
       </c>
       <c r="F19">
         <v>3.207544398718483</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.114974837318016</v>
+        <v>2.11497483731803</v>
       </c>
       <c r="I19">
-        <v>0.2537420848059426</v>
+        <v>0.2537420848059284</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.196920976320037</v>
+        <v>1.196920976320044</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.021536438050646</v>
+        <v>4.021536438050418</v>
       </c>
       <c r="C20">
-        <v>1.873838070888439</v>
+        <v>1.873838070888951</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05304156373088276</v>
+        <v>0.05304156373088986</v>
       </c>
       <c r="F20">
-        <v>3.345622721332035</v>
+        <v>3.345622721332063</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.195310930295065</v>
+        <v>2.195310930295136</v>
       </c>
       <c r="I20">
-        <v>0.2610221930881522</v>
+        <v>0.2610221930881025</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.249417392513656</v>
+        <v>1.249417392513635</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.607523730770311</v>
+        <v>4.60752373077014</v>
       </c>
       <c r="C21">
-        <v>2.154551592694133</v>
+        <v>2.15455159269402</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0599990046836183</v>
+        <v>0.0599990046836254</v>
       </c>
       <c r="F21">
         <v>3.822527949573583</v>
@@ -1155,7 +1155,7 @@
         <v>2.476062661765155</v>
       </c>
       <c r="I21">
-        <v>0.2870151730418584</v>
+        <v>0.2870151730418158</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.002974999333958</v>
+        <v>5.002974999333901</v>
       </c>
       <c r="C22">
-        <v>2.344992174507752</v>
+        <v>2.344992174507411</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06458547766060718</v>
+        <v>0.06458547766059652</v>
       </c>
       <c r="F22">
         <v>4.145532896323857</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.668998783839584</v>
+        <v>2.668998783839626</v>
       </c>
       <c r="I22">
-        <v>0.3053488567372753</v>
+        <v>0.3053488567373392</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.5512545504115</v>
+        <v>1.551254550411485</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.790631472136113</v>
+        <v>4.79063147213617</v>
       </c>
       <c r="C23">
-        <v>2.242632040977639</v>
+        <v>2.242632040977924</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06213368869556746</v>
+        <v>0.06213368869553548</v>
       </c>
       <c r="F23">
-        <v>3.971988658058905</v>
+        <v>3.971988658058848</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>2.565064289752584</v>
       </c>
       <c r="I23">
-        <v>0.2954263210735846</v>
+        <v>0.2954263210735775</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.486071595031731</v>
+        <v>1.486071595031717</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.012139880150471</v>
+        <v>4.012139880150642</v>
       </c>
       <c r="C24">
         <v>1.869351212420327</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0529284471450886</v>
+        <v>0.05292844714504241</v>
       </c>
       <c r="F24">
-        <v>3.337995136546368</v>
+        <v>3.337995136546425</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.190861700321577</v>
+        <v>2.190861700321605</v>
       </c>
       <c r="I24">
-        <v>0.2606171072071604</v>
+        <v>0.2606171072071817</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.246520770553133</v>
+        <v>1.246520770553126</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.21361617732066</v>
+        <v>3.213616177320546</v>
       </c>
       <c r="C25">
-        <v>1.489746139369061</v>
+        <v>1.48974613936781</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04313905729190637</v>
+        <v>0.04313905729190992</v>
       </c>
       <c r="F25">
-        <v>2.692649381253119</v>
+        <v>2.692649381253091</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.819396785394574</v>
+        <v>1.819396785394531</v>
       </c>
       <c r="I25">
-        <v>0.2276125431168872</v>
+        <v>0.2276125431168552</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9999311126377677</v>
+        <v>0.9999311126377464</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.649884555669814</v>
+        <v>2.621340687940972</v>
       </c>
       <c r="C2">
-        <v>1.22380377878261</v>
+        <v>1.20736993798522</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03601960652698999</v>
+        <v>0.03661329401190727</v>
       </c>
       <c r="F2">
-        <v>2.241282752265604</v>
+        <v>2.238148594234104</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007738057597220798</v>
       </c>
       <c r="H2">
-        <v>1.565912181145663</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2061188033943644</v>
+        <v>1.58092168990413</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2108875583666752</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8253609840261191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.8206389167482797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.278456932725476</v>
+        <v>2.254001062204622</v>
       </c>
       <c r="C3">
-        <v>1.049536296239097</v>
+        <v>1.035522440283302</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03123519366793026</v>
+        <v>0.03174747995116789</v>
       </c>
       <c r="F3">
-        <v>1.94641730251125</v>
+        <v>1.944991272501426</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007837843836409106</v>
       </c>
       <c r="H3">
-        <v>1.403527381372115</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1928699466038637</v>
+        <v>1.421014521692598</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1980984523766587</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7101387309260829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.7061037458817765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.054392783753656</v>
+        <v>2.032438923985382</v>
       </c>
       <c r="C4">
-        <v>0.9447871751254979</v>
+        <v>0.9322522882094404</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0283131036951243</v>
+        <v>0.02877247409358041</v>
       </c>
       <c r="F4">
-        <v>1.769732105850252</v>
+        <v>1.769333793573082</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007900411760347093</v>
       </c>
       <c r="H4">
-        <v>1.307597383833638</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.18526586927252</v>
+        <v>1.326587924746264</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1907723820410823</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.640557467277894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6369385458710326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.963925957425801</v>
+        <v>1.942992311899872</v>
       </c>
       <c r="C5">
-        <v>0.9025767052574452</v>
+        <v>0.8906443996627615</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0271256454096207</v>
+        <v>0.0275627167374477</v>
       </c>
       <c r="F5">
-        <v>1.698685444550563</v>
+        <v>1.698702173778599</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007926261902358481</v>
       </c>
       <c r="H5">
-        <v>1.269339874733419</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1822849695348197</v>
+        <v>1.288940464100577</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1879040674550971</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6124487271333408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.6089984315073522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.948950358572546</v>
+        <v>1.928186227161234</v>
       </c>
       <c r="C6">
-        <v>0.8955939447479011</v>
+        <v>0.883761734128143</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02692865252152821</v>
+        <v>0.0273619767376676</v>
       </c>
       <c r="F6">
-        <v>1.68694187968056</v>
+        <v>1.687027340145136</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007930576361013326</v>
       </c>
       <c r="H6">
-        <v>1.263034520787542</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1817966835588507</v>
+        <v>1.282736302044285</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1874344435348654</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6077948772396553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.6043725402843947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.053169514256041</v>
+        <v>2.031229407688414</v>
       </c>
       <c r="C7">
-        <v>0.9442160970318128</v>
+        <v>0.9316893351931128</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0282970765463979</v>
+        <v>0.02875614918703917</v>
       </c>
       <c r="F7">
-        <v>1.768770262821718</v>
+        <v>1.768377561286414</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007900758921905804</v>
       </c>
       <c r="H7">
-        <v>1.307078193182264</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1852252102232868</v>
+        <v>1.326076969619251</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1907332437528311</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6401774448173327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6365608006415968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.520883580665213</v>
+        <v>2.493752634593363</v>
       </c>
       <c r="C8">
-        <v>1.16319135338756</v>
+        <v>1.147594410291845</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03436634055364074</v>
+        <v>0.03493257221513346</v>
       </c>
       <c r="F8">
-        <v>2.138616975255488</v>
+        <v>2.136077150085612</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007772211200928861</v>
       </c>
       <c r="H8">
-        <v>1.509065869977022</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2014304703381136</v>
+        <v>1.524934598795824</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2063588761024242</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.785360627790503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.7808770204200428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.478169342466458</v>
+        <v>3.440652792608773</v>
       </c>
       <c r="C9">
-        <v>1.615138256071816</v>
+        <v>1.593378312143898</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04642084144522585</v>
+        <v>0.04717370324233627</v>
       </c>
       <c r="F9">
-        <v>2.90577587039823</v>
+        <v>2.898775515705694</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007529075505995826</v>
       </c>
       <c r="H9">
-        <v>1.940957143320887</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2382290451932292</v>
+        <v>1.950444712439435</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2419669151986454</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.081719659264131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.075460696666838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.219588863850561</v>
+        <v>4.174070750688827</v>
       </c>
       <c r="C10">
-        <v>1.968514883215505</v>
+        <v>1.941989836790242</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05541438887583894</v>
+        <v>0.05628953196510622</v>
       </c>
       <c r="F10">
-        <v>3.506544740796642</v>
+        <v>3.495972678935772</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007353711117220788</v>
       </c>
       <c r="H10">
-        <v>2.289483750682578</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2696473194831555</v>
+        <v>2.293962061056249</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2724436104218597</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.310441045301189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.302781271098667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.568870537812813</v>
+        <v>4.519559092975953</v>
       </c>
       <c r="C11">
-        <v>2.135980324132333</v>
+        <v>2.107191641883105</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.059545972930934</v>
+        <v>0.06047333271228794</v>
       </c>
       <c r="F11">
-        <v>3.791001746775692</v>
+        <v>3.778698902303177</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007274054039404607</v>
       </c>
       <c r="H11">
-        <v>2.457350133893044</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2852569679591994</v>
+        <v>2.459429309281916</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2876003901484054</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.417923987962837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.409590900453281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.703237385599209</v>
+        <v>4.652459519570812</v>
       </c>
       <c r="C12">
-        <v>2.200571236453015</v>
+        <v>2.170906734360756</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06111719708449215</v>
+        <v>0.06206381574912001</v>
       </c>
       <c r="F12">
-        <v>3.900630588470761</v>
+        <v>3.887652521525638</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007243847665271274</v>
       </c>
       <c r="H12">
-        <v>2.522512386896054</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2913949484814609</v>
+        <v>2.523660275198765</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2935622662228781</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.459224094756948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.450629192247291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.674198918578384</v>
+        <v>4.623738352584951</v>
       </c>
       <c r="C13">
-        <v>2.186604391617891</v>
+        <v>2.157129431326211</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06077849428224269</v>
+        <v>0.06172098855179442</v>
       </c>
       <c r="F13">
-        <v>3.876929648141015</v>
+        <v>3.86409796851413</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007250356063433913</v>
       </c>
       <c r="H13">
-        <v>2.508403059954333</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2900622559288024</v>
+        <v>2.509752632418483</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2922677261745648</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.450300894891768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.44176271431958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.579880474385277</v>
+        <v>4.530449039098073</v>
       </c>
       <c r="C14">
-        <v>2.141269360319768</v>
+        <v>2.112409029115952</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05967509940055393</v>
+        <v>0.06060405409855818</v>
       </c>
       <c r="F14">
-        <v>3.799980745363683</v>
+        <v>3.78762277718252</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007271570156059637</v>
       </c>
       <c r="H14">
-        <v>2.46267748980857</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2857571544097013</v>
+        <v>2.464680540367013</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2880861879741019</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.4213091121524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.412954633152665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.5223936471142</v>
+        <v>4.473588413488699</v>
       </c>
       <c r="C15">
-        <v>2.113660300851507</v>
+        <v>2.085173858152132</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05900013514049363</v>
+        <v>0.05992072861421249</v>
       </c>
       <c r="F15">
-        <v>3.753106131086184</v>
+        <v>3.741035590087733</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007284557017870185</v>
       </c>
       <c r="H15">
-        <v>2.434885273703728</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.283150945716848</v>
+        <v>2.437285446323443</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2855550280452093</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.403632175518155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.39538927124643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.197034658077143</v>
+        <v>4.151760727479541</v>
       </c>
       <c r="C16">
-        <v>1.957722818814034</v>
+        <v>1.931343387987624</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05514526670621578</v>
+        <v>0.05601692680867387</v>
       </c>
       <c r="F16">
-        <v>3.488204496273994</v>
+        <v>3.477743045771632</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007358914446831423</v>
       </c>
       <c r="H16">
-        <v>2.278721626188229</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2686567497971097</v>
+        <v>2.283353863515273</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2714820559803144</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.303494470578073</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.295877840323158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.000759386156233</v>
+        <v>3.95760744784792</v>
       </c>
       <c r="C17">
-        <v>1.863917639231317</v>
+        <v>1.838803120251498</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05279138258818605</v>
+        <v>0.05363213548402612</v>
       </c>
       <c r="F17">
-        <v>3.328758026660893</v>
+        <v>3.319253626527512</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007404521506508138</v>
       </c>
       <c r="H17">
-        <v>2.185475392907662</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2601269985263244</v>
+        <v>2.191442580237663</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.263203731578102</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.243012407943482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.23576967781424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.888971201517506</v>
+        <v>3.847025909507408</v>
       </c>
       <c r="C18">
-        <v>1.810580655299816</v>
+        <v>1.786184994592816</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05144123580994275</v>
+        <v>0.05226389259978603</v>
       </c>
       <c r="F18">
-        <v>3.238078559795127</v>
+        <v>3.229114981540874</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007430768548560336</v>
       </c>
       <c r="H18">
-        <v>2.132702316829551</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2553422904028366</v>
+        <v>2.139426391905673</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2585614055240342</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.208540992662826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.201510043945753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.851300896734301</v>
+        <v>3.809761984223314</v>
       </c>
       <c r="C19">
-        <v>1.792621875341922</v>
+        <v>1.768468245159227</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05098471643105285</v>
+        <v>0.05180119200015554</v>
       </c>
       <c r="F19">
-        <v>3.207544398718483</v>
+        <v>3.198762398678667</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007439659566371083</v>
       </c>
       <c r="H19">
-        <v>2.11497483731803</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2537420848059284</v>
+        <v>2.121953449461756</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2570090537570913</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.196920976320044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.189961214686249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.021536438050418</v>
+        <v>3.978160096681847</v>
       </c>
       <c r="C20">
-        <v>1.873838070888951</v>
+        <v>1.848589830200069</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05304156373088986</v>
+        <v>0.05388563992786288</v>
       </c>
       <c r="F20">
-        <v>3.345622721332063</v>
+        <v>3.336017469815545</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007399665392275878</v>
       </c>
       <c r="H20">
-        <v>2.195310930295136</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2610221930881025</v>
+        <v>2.201137177850413</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2640723993831244</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.249417392513635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.242135209881503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.60752373077014</v>
+        <v>4.55779090096047</v>
       </c>
       <c r="C21">
-        <v>2.15455159269402</v>
+        <v>2.125511280035028</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0599990046836254</v>
+        <v>0.06093195047559519</v>
       </c>
       <c r="F21">
-        <v>3.822527949573583</v>
+        <v>3.810031420564798</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007265340721897049</v>
       </c>
       <c r="H21">
-        <v>2.476062661765155</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2870151730418158</v>
+        <v>2.477874438549094</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.289308048200958</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.429807532192484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.421399296672888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.002974999333901</v>
+        <v>4.94890795662684</v>
       </c>
       <c r="C22">
-        <v>2.344992174507411</v>
+        <v>2.313361763842295</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06458547766059652</v>
+        <v>0.06557348892468795</v>
       </c>
       <c r="F22">
-        <v>4.145532896323857</v>
+        <v>4.131028269828448</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007177271995733655</v>
       </c>
       <c r="H22">
-        <v>2.668998783839626</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3053488567373392</v>
+        <v>2.668050486261919</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3071191766224004</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.551254550411485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.542069375001461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.79063147213617</v>
+        <v>4.738897293493835</v>
       </c>
       <c r="C23">
-        <v>2.242632040977924</v>
+        <v>2.212396164167444</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06213368869553548</v>
+        <v>0.0630925965965119</v>
       </c>
       <c r="F23">
-        <v>3.971988658058848</v>
+        <v>3.95856845173941</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007224323766141794</v>
       </c>
       <c r="H23">
-        <v>2.565064289752584</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2954263210735775</v>
+        <v>2.565603746632831</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2974784942243929</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.486071595031717</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.477305501795968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.012139880150642</v>
+        <v>3.968865032313147</v>
       </c>
       <c r="C24">
-        <v>1.869351212420327</v>
+        <v>1.844163452999055</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05292844714504241</v>
+        <v>0.05377102189498473</v>
       </c>
       <c r="F24">
-        <v>3.337995136546425</v>
+        <v>3.328435508887992</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007401860753623318</v>
       </c>
       <c r="H24">
-        <v>2.190861700321605</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2606171072071817</v>
+        <v>2.196751699349448</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2636793129194288</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.246520770553126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.239256434180078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.213616177320546</v>
+        <v>3.178953700705222</v>
       </c>
       <c r="C25">
-        <v>1.48974613936781</v>
+        <v>1.46968242713649</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04313905729190992</v>
+        <v>0.04384398726195471</v>
       </c>
       <c r="F25">
-        <v>2.692649381253091</v>
+        <v>2.686895465751661</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007594099786078318</v>
       </c>
       <c r="H25">
-        <v>1.819396785394531</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2276125431168552</v>
+        <v>1.83065249802948</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2316813702525273</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9999311126377464</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.9941650824628283</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.621340687940972</v>
+        <v>2.37829788445589</v>
       </c>
       <c r="C2">
-        <v>1.20736993798522</v>
+        <v>0.2330923954857553</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03661329401190727</v>
+        <v>0.04265034117874933</v>
       </c>
       <c r="F2">
-        <v>2.238148594234104</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007738057597220798</v>
+        <v>0.0008231103236329138</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.58092168990413</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2108875583666752</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5171577971599604</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2907218211199449</v>
       </c>
       <c r="M2">
-        <v>0.8206389167482797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.753443405125978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.254001062204622</v>
+        <v>2.069231692153323</v>
       </c>
       <c r="C3">
-        <v>1.035522440283302</v>
+        <v>0.2039413155037693</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03174747995116789</v>
+        <v>0.04027975573822395</v>
       </c>
       <c r="F3">
-        <v>1.944991272501426</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007837843836409106</v>
+        <v>0.0008320580922474008</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.421014521692598</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1980984523766587</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4467518181250938</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2557279292204981</v>
       </c>
       <c r="M3">
-        <v>0.7061037458817765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.508988090515359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.032438923985382</v>
+        <v>1.883367140644509</v>
       </c>
       <c r="C4">
-        <v>0.9322522882094404</v>
+        <v>0.1862605344819031</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02877247409358041</v>
+        <v>0.03888376087424739</v>
       </c>
       <c r="F4">
-        <v>1.769333793573082</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007900411760347093</v>
+        <v>0.0008376832641829573</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.326587924746264</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1907723820410823</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4043353079844962</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.234746552392437</v>
       </c>
       <c r="M4">
-        <v>0.6369385458710326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2.363748077652076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.942992311899872</v>
+        <v>1.808486199423527</v>
       </c>
       <c r="C5">
-        <v>0.8906443996627615</v>
+        <v>0.1790985197345663</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0275627167374477</v>
+        <v>0.03832864844387096</v>
       </c>
       <c r="F5">
-        <v>1.698702173778599</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007926261902358481</v>
+        <v>0.0008400105172951337</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.288940464100577</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1879040674550971</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.387227138301526</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.22630895506272</v>
       </c>
       <c r="M5">
-        <v>0.6089984315073522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2.305645352048217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.928186227161234</v>
+        <v>1.796100905818747</v>
       </c>
       <c r="C6">
-        <v>0.883761734128143</v>
+        <v>0.1779115494595089</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0273619767376676</v>
+        <v>0.03823727048183656</v>
       </c>
       <c r="F6">
-        <v>1.687027340145136</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0007930576361013326</v>
+        <v>0.000840399120894894</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.282736302044285</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1874344435348654</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3843962667022964</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2249142921604061</v>
       </c>
       <c r="M6">
-        <v>0.6043725402843947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>2.296059096143509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.031229407688414</v>
+        <v>1.882353938630217</v>
       </c>
       <c r="C7">
-        <v>0.9316893351931128</v>
+        <v>0.1861637855056841</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02875614918703917</v>
+        <v>0.03887622021732717</v>
       </c>
       <c r="F7">
-        <v>1.768377561286414</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007900758921905804</v>
+        <v>0.0008377145063956926</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.326076969619251</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1907332437528311</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4041038995240669</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2346323228086362</v>
       </c>
       <c r="M7">
-        <v>0.6365608006415968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.36296026909379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.493752634593363</v>
+        <v>2.270845163499416</v>
       </c>
       <c r="C8">
-        <v>1.147594410291845</v>
+        <v>0.2229883549619558</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03493257221513346</v>
+        <v>0.04181984242490699</v>
       </c>
       <c r="F8">
-        <v>2.136077150085612</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007772211200928861</v>
+        <v>0.000826169514244914</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.524934598795824</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2063588761024242</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4926956512711058</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2785419591337615</v>
       </c>
       <c r="M8">
-        <v>0.7808770204200428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.668060665264889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.440652792608773</v>
+        <v>3.069785229213721</v>
       </c>
       <c r="C9">
-        <v>1.593378312143898</v>
+        <v>0.2975347600711444</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04717370324233627</v>
+        <v>0.04812538669222555</v>
       </c>
       <c r="F9">
-        <v>2.898775515705694</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007529075505995826</v>
+        <v>0.0008044726760225957</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.950444712439435</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2419669151986454</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6742727127235923</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.369387805927758</v>
       </c>
       <c r="M9">
-        <v>1.075460696666838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.31180061277044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.174070750688827</v>
+        <v>3.689133180830254</v>
       </c>
       <c r="C10">
-        <v>1.941989836790242</v>
+        <v>0.3546940815370192</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05628953196510622</v>
+        <v>0.05317809948009611</v>
       </c>
       <c r="F10">
-        <v>3.495972678935772</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007353711117220788</v>
+        <v>0.0007889524162858418</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.293962061056249</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2724436104218597</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8146848819286419</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4401785315436086</v>
       </c>
       <c r="M10">
-        <v>1.302781271098667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.823330067067275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.519559092975953</v>
+        <v>3.98048084755618</v>
       </c>
       <c r="C11">
-        <v>2.107191641883105</v>
+        <v>0.3814746823997552</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06047333271228794</v>
+        <v>0.05559255591510492</v>
       </c>
       <c r="F11">
-        <v>3.778698902303177</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007274054039404607</v>
+        <v>0.0007819429885454773</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.459429309281916</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2876003901484054</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8806695924792223</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4735644048710839</v>
       </c>
       <c r="M11">
-        <v>1.409590900453281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.067253624214885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.652459519570812</v>
+        <v>4.092438407406576</v>
       </c>
       <c r="C12">
-        <v>2.170906734360756</v>
+        <v>0.3917534043379192</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06206381574912001</v>
+        <v>0.0565259085225911</v>
       </c>
       <c r="F12">
-        <v>3.887652521525638</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007243847665271274</v>
+        <v>0.0007792921109171187</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.523660275198765</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2935622662228781</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9060172794726356</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4864063761850304</v>
       </c>
       <c r="M12">
-        <v>1.450629192247291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.161512723355827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.623738352584951</v>
+        <v>4.068249449162522</v>
       </c>
       <c r="C13">
-        <v>2.157129431326211</v>
+        <v>0.3895331318925912</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06172098855179442</v>
+        <v>0.05632400563640161</v>
       </c>
       <c r="F13">
-        <v>3.86409796851413</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007250356063433913</v>
+        <v>0.0007798629393514973</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.509752632418483</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2922677261745648</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9005411543829354</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4836312425610743</v>
       </c>
       <c r="M13">
-        <v>1.44176271431958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.141123423508532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.530449039098073</v>
+        <v>3.98965742249635</v>
       </c>
       <c r="C14">
-        <v>2.112409029115952</v>
+        <v>0.3823174026315996</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06060405409855818</v>
+        <v>0.05566894679715162</v>
       </c>
       <c r="F14">
-        <v>3.78762277718252</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007271570156059637</v>
+        <v>0.0007817248543408366</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.464680540367013</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2880861879741019</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8827473741325775</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4746167404089761</v>
       </c>
       <c r="M14">
-        <v>1.412954633152665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.074968761407632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.473588413488699</v>
+        <v>3.94173791973293</v>
       </c>
       <c r="C15">
-        <v>2.085173858152132</v>
+        <v>0.3779162927971527</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05992072861421249</v>
+        <v>0.05527026144838842</v>
       </c>
       <c r="F15">
-        <v>3.741035590087733</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007284557017870185</v>
+        <v>0.0007828656549104543</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.437285446323443</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2855550280452093</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8718969901219822</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.469122018568001</v>
       </c>
       <c r="M15">
-        <v>1.39538927124643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.034702208500789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.151760727479541</v>
+        <v>3.670306679521275</v>
       </c>
       <c r="C16">
-        <v>1.931343387987624</v>
+        <v>0.3529616651027538</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05601692680867387</v>
+        <v>0.05302283813334085</v>
       </c>
       <c r="F16">
-        <v>3.477743045771632</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007358914446831423</v>
+        <v>0.0007894112031368028</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.283353863515273</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2714820559803144</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8104197951794987</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4380229041907597</v>
       </c>
       <c r="M16">
-        <v>1.295877840323158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3.807637711208343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.95760744784792</v>
+        <v>3.506418438316359</v>
       </c>
       <c r="C17">
-        <v>1.838803120251498</v>
+        <v>0.3378691572836772</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05363213548402612</v>
+        <v>0.05167540602887399</v>
       </c>
       <c r="F17">
-        <v>3.319253626527512</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007404521506508138</v>
+        <v>0.0007934371164746219</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.191442580237663</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.263203731578102</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7732842025892808</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4192671713429093</v>
       </c>
       <c r="M17">
-        <v>1.23576967781424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.671400761534528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.847025909507408</v>
+        <v>3.413041231633599</v>
       </c>
       <c r="C18">
-        <v>1.786184994592816</v>
+        <v>0.3292598807766751</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05226389259978603</v>
+        <v>0.05091115267039115</v>
       </c>
       <c r="F18">
-        <v>3.229114981540874</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.0007430768548560336</v>
+        <v>0.0007957577593263877</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.139426391905673</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2585614055240342</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7521195586810734</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4085887155790004</v>
       </c>
       <c r="M18">
-        <v>1.201510043945753</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.594078862778872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.809761984223314</v>
+        <v>3.381570628014401</v>
       </c>
       <c r="C19">
-        <v>1.768468245159227</v>
+        <v>0.3263564994282149</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05180119200015554</v>
+        <v>0.05065416938868239</v>
       </c>
       <c r="F19">
-        <v>3.198762398678667</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007439659566371083</v>
+        <v>0.0007965444647700696</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.121953449461756</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2570090537570913</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.744985416497407</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4049911257980767</v>
       </c>
       <c r="M19">
-        <v>1.189961214686249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.56806948432893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.978160096681847</v>
+        <v>3.523771129999147</v>
       </c>
       <c r="C20">
-        <v>1.848589830200069</v>
+        <v>0.3394682045887976</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05388563992786288</v>
+        <v>0.05181771329715801</v>
       </c>
       <c r="F20">
-        <v>3.336017469815545</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007399665392275878</v>
+        <v>0.000793008055277182</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.201137177850413</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2640723993831244</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7772168044397461</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4212522346995939</v>
       </c>
       <c r="M20">
-        <v>1.242135209881503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.68579411305214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.55779090096047</v>
+        <v>4.012695379102809</v>
       </c>
       <c r="C21">
-        <v>2.125511280035028</v>
+        <v>0.384432881868463</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06093195047559519</v>
+        <v>0.05586081583853897</v>
       </c>
       <c r="F21">
-        <v>3.810031420564798</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007265340721897049</v>
+        <v>0.00078117790499886</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.477874438549094</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.289308048200958</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8879635500539109</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4772588492897967</v>
       </c>
       <c r="M21">
-        <v>1.421399296672888</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.094346278102762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.94890795662684</v>
+        <v>4.341883687518418</v>
       </c>
       <c r="C22">
-        <v>2.313361763842295</v>
+        <v>0.4146362626514701</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06557348892468795</v>
+        <v>0.05861561208030253</v>
       </c>
       <c r="F22">
-        <v>4.131028269828448</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007177271995733655</v>
+        <v>0.0007734640526773207</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.668050486261919</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3071191766224004</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9624785644497109</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5150419317045731</v>
       </c>
       <c r="M22">
-        <v>1.542069375001461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4.372537095617986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.738897293493835</v>
+        <v>4.165214324779299</v>
       </c>
       <c r="C23">
-        <v>2.212396164167444</v>
+        <v>0.3984319021807892</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0630925965965119</v>
+        <v>0.05713416603395061</v>
       </c>
       <c r="F23">
-        <v>3.95856845173941</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007224323766141794</v>
+        <v>0.0007775808782126692</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.565603746632831</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2974784942243929</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9224918381903677</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4947575956312704</v>
       </c>
       <c r="M23">
-        <v>1.477305501795968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.222936392381428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.968865032313147</v>
+        <v>3.515923366569211</v>
       </c>
       <c r="C24">
-        <v>1.844163452999055</v>
+        <v>0.3387450665938445</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05377102189498473</v>
+        <v>0.05175334395229925</v>
       </c>
       <c r="F24">
-        <v>3.328435508887992</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>0.0007401860753623318</v>
+        <v>0.0007932020146326542</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.196751699349448</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2636793129194288</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7754383027975393</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4203544643336699</v>
       </c>
       <c r="M24">
-        <v>1.239256434180078</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.679283776493776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.178953700705222</v>
+        <v>2.848745835673299</v>
       </c>
       <c r="C25">
-        <v>1.46968242713649</v>
+        <v>0.2770261910251577</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04384398726195471</v>
+        <v>0.04635335379249561</v>
       </c>
       <c r="F25">
-        <v>2.686895465751661</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007594099786078318</v>
+        <v>0.0008102561465254258</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.83065249802948</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2316813702525273</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6240986360148497</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3441933105600157</v>
       </c>
       <c r="M25">
-        <v>0.9941650824628283</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>3.131744180559579</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.37829788445589</v>
+        <v>3.646691455508858</v>
       </c>
       <c r="C2">
-        <v>0.2330923954857553</v>
+        <v>0.9921374134644338</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04265034117874933</v>
+        <v>1.443744216403488</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008231103236329138</v>
+        <v>0.08787836527753967</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.08336054847862329</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02783459786691178</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5171577971599604</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2907218211199449</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.753443405125978</v>
+        <v>0.3133011319452095</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.069231692153323</v>
+        <v>3.184278006687236</v>
       </c>
       <c r="C3">
-        <v>0.2039413155037693</v>
+        <v>0.873931940162862</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04027975573822395</v>
+        <v>1.240405439402664</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008320580922474008</v>
+        <v>0.07836267836675859</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.08614638594976043</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.03635267139566167</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4467518181250938</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2557279292204981</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.508988090515359</v>
+        <v>0.2985588867059761</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.883367140644509</v>
+        <v>2.900304729716083</v>
       </c>
       <c r="C4">
-        <v>0.1862605344819031</v>
+        <v>0.8013519246982526</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03888376087424739</v>
+        <v>1.117757435958154</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008376832641829573</v>
+        <v>0.07344769786702443</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.08842484694026354</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.04227979677851068</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4043353079844962</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.234746552392437</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.363748077652076</v>
+        <v>0.2926544655282157</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.808486199423527</v>
+        <v>2.784537850052914</v>
       </c>
       <c r="C5">
-        <v>0.1790985197345663</v>
+        <v>0.7717661539207086</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03832864844387096</v>
+        <v>1.068247147612851</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008400105172951337</v>
+        <v>0.07165842246783427</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.08948749260608224</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.04485968868305834</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.387227138301526</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.22630895506272</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.305645352048217</v>
+        <v>0.2909799700631766</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.796100905818747</v>
+        <v>2.765311191177318</v>
       </c>
       <c r="C6">
-        <v>0.1779115494595089</v>
+        <v>0.7668526929903123</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03823727048183656</v>
+        <v>1.060052044892529</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.000840399120894894</v>
+        <v>0.0713736645217864</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0896718033209325</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.04529771356292756</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3843962667022964</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2249142921604061</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.296059096143509</v>
+        <v>0.2907444274921716</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.882353938630217</v>
+        <v>2.898743682759687</v>
       </c>
       <c r="C7">
-        <v>0.1861637855056841</v>
+        <v>0.8009529670336804</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03887622021732717</v>
+        <v>1.117087927038781</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008377145063956926</v>
+        <v>0.07342272724966392</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.08843864603138485</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.04231393761370994</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4041038995240669</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2346323228086362</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.36296026909379</v>
+        <v>0.2926289968991256</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.270845163499416</v>
+        <v>3.487240696421964</v>
       </c>
       <c r="C8">
-        <v>0.2229883549619558</v>
+        <v>0.9513750722858845</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04181984242490699</v>
+        <v>1.373122886584142</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000826169514244914</v>
+        <v>0.08439260262537118</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.08419785053305873</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.03062032200952636</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4926956512711058</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2785419591337615</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.668060665264889</v>
+        <v>0.3075276028680491</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.069785229213721</v>
+        <v>4.64258277706017</v>
       </c>
       <c r="C9">
-        <v>0.2975347600711444</v>
+        <v>1.246779552228475</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04812538669222555</v>
+        <v>1.896895607487409</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008044726760225957</v>
+        <v>0.1142171861061669</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.08080668490639198</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01373496322451573</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6742727127235923</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.369387805927758</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.31180061277044</v>
+        <v>0.3646125622319119</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.689133180830254</v>
+        <v>5.49488452380433</v>
       </c>
       <c r="C10">
-        <v>0.3546940815370192</v>
+        <v>1.464771429068321</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05317809948009611</v>
+        <v>2.3015169917647</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007889524162858418</v>
+        <v>0.1426313470503828</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.08194733381555608</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.005785050717059703</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8146848819286419</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4401785315436086</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.823330067067275</v>
+        <v>0.4279038766568419</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.98048084755618</v>
+        <v>5.884045312078854</v>
       </c>
       <c r="C11">
-        <v>0.3814746823997552</v>
+        <v>1.564326776512132</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05559255591510492</v>
+        <v>2.491586464363678</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007819429885454773</v>
+        <v>0.1573227110580433</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.08340981720955654</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003323816811638403</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8806695924792223</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4735644048710839</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.067253624214885</v>
+        <v>0.4624064194258892</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.092438407406576</v>
+        <v>6.031679018557895</v>
       </c>
       <c r="C12">
-        <v>0.3917534043379192</v>
+        <v>1.602098058778438</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0565259085225911</v>
+        <v>2.564587420937769</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007792921109171187</v>
+        <v>0.1631726429648452</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08411370407009855</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002575287805200888</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9060172794726356</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4864063761850304</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.161512723355827</v>
+        <v>0.4763925919099563</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.068249449162522</v>
+        <v>5.999870574591512</v>
       </c>
       <c r="C13">
-        <v>0.3895331318925912</v>
+        <v>1.593959871817106</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05632400563640161</v>
+        <v>2.548816922294378</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007798629393514973</v>
+        <v>0.1618994509894875</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.08395519033398102</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002728042429736899</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9005411543829354</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4836312425610743</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.141123423508532</v>
+        <v>0.4733377739667901</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.98965742249635</v>
+        <v>5.896185513989508</v>
       </c>
       <c r="C14">
-        <v>0.3823174026315996</v>
+        <v>1.567432706153909</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05566894679715162</v>
+        <v>2.497570732970857</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007817248543408366</v>
+        <v>0.1577980447725551</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.08346463115816505</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00325845230420263</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8827473741325775</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4746167404089761</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.074968761407632</v>
+        <v>0.463538010133334</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.94173791973293</v>
+        <v>5.832712051561884</v>
       </c>
       <c r="C15">
-        <v>0.3779162927971527</v>
+        <v>1.551193905108789</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05527026144838842</v>
+        <v>2.46631972818173</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007828656549104543</v>
+        <v>0.1553241700985311</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.08318414509471239</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003607781913446351</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8718969901219822</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.469122018568001</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.034702208500789</v>
+        <v>0.4576584121637666</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.670306679521275</v>
+        <v>5.469485942568497</v>
       </c>
       <c r="C16">
-        <v>0.3529616651027538</v>
+        <v>1.458274405161035</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05302283813334085</v>
+        <v>2.289229736421674</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007894112031368028</v>
+        <v>0.1417094863595594</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.08187194290177047</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.00597059289730173</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8104197951794987</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4380229041907597</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.807637711208343</v>
+        <v>0.4257722654254223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.506418438316359</v>
+        <v>5.247068697047553</v>
       </c>
       <c r="C17">
-        <v>0.3378691572836772</v>
+        <v>1.401381810428347</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05167540602887399</v>
+        <v>2.182237789608962</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007934371164746219</v>
+        <v>0.1338318370178015</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.08131843202643552</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.007727848297236273</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7732842025892808</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4192671713429093</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.671400761534528</v>
+        <v>0.4077417095306828</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.413041231633599</v>
+        <v>5.119272240056773</v>
       </c>
       <c r="C18">
-        <v>0.3292598807766751</v>
+        <v>1.368694334259487</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05091115267039115</v>
+        <v>2.121253215109533</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007957577593263877</v>
+        <v>0.1294648704516916</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08108794332173375</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.008846181390541497</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7521195586810734</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4085887155790004</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.594078862778872</v>
+        <v>0.3979020515393756</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.381570628014401</v>
+        <v>5.076023530632256</v>
       </c>
       <c r="C19">
-        <v>0.3263564994282149</v>
+        <v>1.35763258502061</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05065416938868239</v>
+        <v>2.100695491737369</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007965444647700696</v>
+        <v>0.1280135202140542</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.08102458066259999</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.009242807476564363</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.744985416497407</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4049911257980767</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.56806948432893</v>
+        <v>0.3946588415751648</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.523771129999147</v>
+        <v>5.270731315122589</v>
       </c>
       <c r="C20">
-        <v>0.3394682045887976</v>
+        <v>1.407434326949783</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05181771329715801</v>
+        <v>2.193568781933649</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.000793008055277182</v>
+        <v>0.1346532208335276</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.08136815957238497</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.007529527834266858</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7772168044397461</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4212522346995939</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.68579411305214</v>
+        <v>0.409605441883059</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.012695379102809</v>
+        <v>5.926632581111846</v>
       </c>
       <c r="C21">
-        <v>0.384432881868463</v>
+        <v>1.575222293447268</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05586081583853897</v>
+        <v>2.51259374186418</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.00078117790499886</v>
+        <v>0.1589946709322945</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0836045255001352</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003097531862412795</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8879635500539109</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4772588492897967</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.094346278102762</v>
+        <v>0.466390604925266</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.341883687518418</v>
+        <v>6.35689014977936</v>
       </c>
       <c r="C22">
-        <v>0.4146362626514701</v>
+        <v>1.685308788297334</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05861561208030253</v>
+        <v>2.727165463749458</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007734640526773207</v>
+        <v>0.1765915555118198</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.08594861862778913</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001279726854791274</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9624785644497109</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5150419317045731</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.372537095617986</v>
+        <v>0.5089237812406537</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.165214324779299</v>
+        <v>6.12708702884521</v>
       </c>
       <c r="C23">
-        <v>0.3984319021807892</v>
+        <v>1.626508753986172</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05713416603395061</v>
+        <v>2.612029649460069</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007775808782126692</v>
+        <v>0.1670335906860672</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.08461164768619511</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002145047748220108</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9224918381903677</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4947575956312704</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.222936392381428</v>
+        <v>0.4856914637131098</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.515923366569211</v>
+        <v>5.260033218836156</v>
       </c>
       <c r="C24">
-        <v>0.3387450665938445</v>
+        <v>1.404697920506123</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05175334395229925</v>
+        <v>2.188444412289883</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007932020146326542</v>
+        <v>0.1342813710540582</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.08134540555334269</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007618853215110244</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7754383027975393</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4203544643336699</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.679283776493776</v>
+        <v>0.4087612164323104</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.848745835673299</v>
+        <v>4.329631821181749</v>
       </c>
       <c r="C25">
-        <v>0.2770261910251577</v>
+        <v>1.166751370796703</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04635335379249561</v>
+        <v>1.752244548792362</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0008102561465254258</v>
+        <v>0.1051181968605306</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.08113503325185434</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0175798641516115</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6240986360148497</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3441933105600157</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.131744180559579</v>
+        <v>0.3457581152044895</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.646691455508858</v>
+        <v>1.195784431877428</v>
       </c>
       <c r="C2">
-        <v>0.9921374134644338</v>
+        <v>0.3505742835032208</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.443744216403488</v>
+        <v>0.4295085890014434</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.08787836527753967</v>
+        <v>0.0974250560186789</v>
       </c>
       <c r="H2">
-        <v>0.08336054847862329</v>
+        <v>0.2682436956180538</v>
       </c>
       <c r="I2">
-        <v>0.02783459786691178</v>
+        <v>0.1596043950206705</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3133011319452095</v>
+        <v>0.6201320040570124</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.184278006687236</v>
+        <v>1.043962204355239</v>
       </c>
       <c r="C3">
-        <v>0.873931940162862</v>
+        <v>0.3116550348671012</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.240405439402664</v>
+        <v>0.3746495323167949</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.07836267836675859</v>
+        <v>0.09910359483972542</v>
       </c>
       <c r="H3">
-        <v>0.08614638594976043</v>
+        <v>0.2734605452509911</v>
       </c>
       <c r="I3">
-        <v>0.03635267139566167</v>
+        <v>0.1660391165689266</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2985588867059761</v>
+        <v>0.634349020292035</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.900304729716083</v>
+        <v>0.9503500411424284</v>
       </c>
       <c r="C4">
-        <v>0.8013519246982526</v>
+        <v>0.287653993403552</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.117757435958154</v>
+        <v>0.3410483920271048</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.07344769786702443</v>
+        <v>0.1003810139088657</v>
       </c>
       <c r="H4">
-        <v>0.08842484694026354</v>
+        <v>0.276917597517091</v>
       </c>
       <c r="I4">
-        <v>0.04227979677851068</v>
+        <v>0.1702482771225904</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2926544655282157</v>
+        <v>0.6441244567818103</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.784537850052914</v>
+        <v>0.9121063457178593</v>
       </c>
       <c r="C5">
-        <v>0.7717661539207086</v>
+        <v>0.2778478352446712</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.068247147612851</v>
+        <v>0.3273747622888834</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.07165842246783427</v>
+        <v>0.1009630262687011</v>
       </c>
       <c r="H5">
-        <v>0.08948749260608224</v>
+        <v>0.2783900197801721</v>
       </c>
       <c r="I5">
-        <v>0.04485968868305834</v>
+        <v>0.1720281635846057</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2909799700631766</v>
+        <v>0.6483693889936148</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.765311191177318</v>
+        <v>0.9057502944375528</v>
       </c>
       <c r="C6">
-        <v>0.7668526929903123</v>
+        <v>0.2762180092985318</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.060052044892529</v>
+        <v>0.3251053725941802</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0713736645217864</v>
+        <v>0.1010633629369373</v>
       </c>
       <c r="H6">
-        <v>0.0896718033209325</v>
+        <v>0.2786383526540455</v>
       </c>
       <c r="I6">
-        <v>0.04529771356292756</v>
+        <v>0.1723276061204075</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2907444274921716</v>
+        <v>0.6490899926976894</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.898743682759687</v>
+        <v>0.9498346582125805</v>
       </c>
       <c r="C7">
-        <v>0.8009529670336804</v>
+        <v>0.2875218465555065</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.117087927038781</v>
+        <v>0.3408639094686379</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.07342272724966392</v>
+        <v>0.1003886151081872</v>
       </c>
       <c r="H7">
-        <v>0.08843864603138485</v>
+        <v>0.2769371976825425</v>
       </c>
       <c r="I7">
-        <v>0.04231393761370994</v>
+        <v>0.1702720200653975</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2926289968991256</v>
+        <v>0.6441806494275539</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.487240696421964</v>
+        <v>1.143519239471175</v>
       </c>
       <c r="C8">
-        <v>0.9513750722858845</v>
+        <v>0.3371770321460019</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.373122886584142</v>
+        <v>0.4105750445756939</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.08439260262537118</v>
+        <v>0.09795223237942707</v>
       </c>
       <c r="H8">
-        <v>0.08419785053305873</v>
+        <v>0.2699896539270981</v>
       </c>
       <c r="I8">
-        <v>0.03062032200952636</v>
+        <v>0.1617693081711322</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3075276028680491</v>
+        <v>0.624815888511435</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.64258277706017</v>
+        <v>1.520115483469397</v>
       </c>
       <c r="C9">
-        <v>1.246779552228475</v>
+        <v>0.4336945908939356</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.896895607487409</v>
+        <v>0.5480141449565252</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1142171861061669</v>
+        <v>0.09515976530711612</v>
       </c>
       <c r="H9">
-        <v>0.08080668490639198</v>
+        <v>0.2583886878790551</v>
       </c>
       <c r="I9">
-        <v>0.01373496322451573</v>
+        <v>0.1471579894610833</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3646125622319119</v>
+        <v>0.5952181273748778</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.49488452380433</v>
+        <v>1.794728392379511</v>
       </c>
       <c r="C10">
-        <v>1.464771429068321</v>
+        <v>0.5040546680731381</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.3015169917647</v>
+        <v>0.6495604917734283</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1426313470503828</v>
+        <v>0.09435576854083649</v>
       </c>
       <c r="H10">
-        <v>0.08194733381555608</v>
+        <v>0.2511105906744504</v>
       </c>
       <c r="I10">
-        <v>0.005785050717059703</v>
+        <v>0.1376987339919873</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4279038766568419</v>
+        <v>0.5786833671548237</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.884045312078854</v>
+        <v>1.919185743947537</v>
       </c>
       <c r="C11">
-        <v>1.564326776512132</v>
+        <v>0.5359378742575132</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.491586464363678</v>
+        <v>0.6959071633556988</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1573227110580433</v>
+        <v>0.0942689315619134</v>
       </c>
       <c r="H11">
-        <v>0.08340981720955654</v>
+        <v>0.248072491237707</v>
       </c>
       <c r="I11">
-        <v>0.003323816811638403</v>
+        <v>0.1336764023469681</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4624064194258892</v>
+        <v>0.5723150849017316</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.031679018557895</v>
+        <v>1.966245252617682</v>
       </c>
       <c r="C12">
-        <v>1.602098058778438</v>
+        <v>0.54799277516139</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.564587420937769</v>
+        <v>0.7134814030711993</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1631726429648452</v>
+        <v>0.0942768055061336</v>
       </c>
       <c r="H12">
-        <v>0.08411370407009855</v>
+        <v>0.2469614763392372</v>
       </c>
       <c r="I12">
-        <v>0.002575287805200888</v>
+        <v>0.1321939538289294</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4763925919099563</v>
+        <v>0.570071282091476</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.999870574591512</v>
+        <v>1.956113294489001</v>
       </c>
       <c r="C13">
-        <v>1.593959871817106</v>
+        <v>0.5453973747042937</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.548816922294378</v>
+        <v>0.7096953904892587</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1618994509894875</v>
+        <v>0.09427328665947954</v>
       </c>
       <c r="H13">
-        <v>0.08395519033398102</v>
+        <v>0.2471989952185609</v>
       </c>
       <c r="I13">
-        <v>0.002728042429736899</v>
+        <v>0.1325114089369535</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4733377739667901</v>
+        <v>0.5705470358152951</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.896185513989508</v>
+        <v>1.923058772988327</v>
       </c>
       <c r="C14">
-        <v>1.567432706153909</v>
+        <v>0.5369300148131515</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.497570732970857</v>
+        <v>0.6973525200568105</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1577980447725551</v>
+        <v>0.09426875879282903</v>
       </c>
       <c r="H14">
-        <v>0.08346463115816505</v>
+        <v>0.2479802954854122</v>
       </c>
       <c r="I14">
-        <v>0.00325845230420263</v>
+        <v>0.1335536222810561</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.463538010133334</v>
+        <v>0.5721271137265802</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.832712051561884</v>
+        <v>1.90280275122592</v>
       </c>
       <c r="C15">
-        <v>1.551193905108789</v>
+        <v>0.5317410708495913</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.46631972818173</v>
+        <v>0.689795303617899</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1553241700985311</v>
+        <v>0.09427131245272591</v>
       </c>
       <c r="H15">
-        <v>0.08318414509471239</v>
+        <v>0.2484640084272769</v>
       </c>
       <c r="I15">
-        <v>0.003607781913446351</v>
+        <v>0.1341973216182042</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4576584121637666</v>
+        <v>0.5731168553683403</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.469485942568497</v>
+        <v>1.786585200693821</v>
       </c>
       <c r="C16">
-        <v>1.458274405161035</v>
+        <v>0.5019684667934712</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.289229736421674</v>
+        <v>0.6465348544352167</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1417094863595594</v>
+        <v>0.09436711148332932</v>
       </c>
       <c r="H16">
-        <v>0.08187194290177047</v>
+        <v>0.251314645330794</v>
       </c>
       <c r="I16">
-        <v>0.00597059289730173</v>
+        <v>0.1379672819586979</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4257722654254223</v>
+        <v>0.5791229190759566</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.247068697047553</v>
+        <v>1.715168242037976</v>
       </c>
       <c r="C17">
-        <v>1.401381810428347</v>
+        <v>0.4836716536509016</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.182237789608962</v>
+        <v>0.6200363617091682</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1338318370178015</v>
+        <v>0.09449777869713927</v>
       </c>
       <c r="H17">
-        <v>0.08131843202643552</v>
+        <v>0.2531334364681044</v>
       </c>
       <c r="I17">
-        <v>0.007727848297236273</v>
+        <v>0.1403521829916037</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4077417095306828</v>
+        <v>0.5831041982574305</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.119272240056773</v>
+        <v>1.674047455840196</v>
       </c>
       <c r="C18">
-        <v>1.368694334259487</v>
+        <v>0.4731361888065635</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.121253215109533</v>
+        <v>0.6048093965388119</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1294648704516916</v>
+        <v>0.09459914800327596</v>
       </c>
       <c r="H18">
-        <v>0.08108794332173375</v>
+        <v>0.2542052153210577</v>
       </c>
       <c r="I18">
-        <v>0.008846181390541497</v>
+        <v>0.1417503176127333</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3979020515393756</v>
+        <v>0.5855025828962255</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.076023530632256</v>
+        <v>1.660117256599676</v>
       </c>
       <c r="C19">
-        <v>1.35763258502061</v>
+        <v>0.4695670884911465</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.100695491737369</v>
+        <v>0.5996562036081485</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1280135202140542</v>
+        <v>0.09463795217316573</v>
       </c>
       <c r="H19">
-        <v>0.08102458066259999</v>
+        <v>0.2545725011459012</v>
       </c>
       <c r="I19">
-        <v>0.009242807476564363</v>
+        <v>0.1422282259248242</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3946588415751648</v>
+        <v>0.5863332058234931</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.270731315122589</v>
+        <v>1.722775236657981</v>
       </c>
       <c r="C20">
-        <v>1.407434326949783</v>
+        <v>0.4856205889574312</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.193568781933649</v>
+        <v>0.622855681963415</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1346532208335276</v>
+        <v>0.09448115128672896</v>
       </c>
       <c r="H20">
-        <v>0.08136815957238497</v>
+        <v>0.2529371658625479</v>
       </c>
       <c r="I20">
-        <v>0.007529527834266858</v>
+        <v>0.1400955710812402</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.409605441883059</v>
+        <v>0.5826691457957196</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.926632581111846</v>
+        <v>1.932769603888687</v>
       </c>
       <c r="C21">
-        <v>1.575222293447268</v>
+        <v>0.5394175938148464</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.51259374186418</v>
+        <v>0.7009772610038283</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1589946709322945</v>
+        <v>0.09426897741103346</v>
       </c>
       <c r="H21">
-        <v>0.0836045255001352</v>
+        <v>0.2477497362535885</v>
       </c>
       <c r="I21">
-        <v>0.003097531862412795</v>
+        <v>0.1332463909850174</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.466390604925266</v>
+        <v>0.5716584396359679</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.35689014977936</v>
+        <v>2.069604974032814</v>
       </c>
       <c r="C22">
-        <v>1.685308788297334</v>
+        <v>0.5744684199427752</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.727165463749458</v>
+        <v>0.7521735745979896</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1765915555118198</v>
+        <v>0.09436817572044021</v>
       </c>
       <c r="H22">
-        <v>0.08594861862778913</v>
+        <v>0.2445894866194749</v>
       </c>
       <c r="I22">
-        <v>0.001279726854791274</v>
+        <v>0.129007574113815</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5089237812406537</v>
+        <v>0.565440814401299</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.12708702884521</v>
+        <v>1.996611637849242</v>
       </c>
       <c r="C23">
-        <v>1.626508753986172</v>
+        <v>0.5557713205332107</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.612029649460069</v>
+        <v>0.7248357891637198</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1670335906860672</v>
+        <v>0.0942932519197015</v>
       </c>
       <c r="H23">
-        <v>0.08461164768619511</v>
+        <v>0.2462550478863648</v>
       </c>
       <c r="I23">
-        <v>0.002145047748220108</v>
+        <v>0.1312480608928386</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4856914637131098</v>
+        <v>0.5686691295973674</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.260033218836156</v>
+        <v>1.719336308000948</v>
       </c>
       <c r="C24">
-        <v>1.404697920506123</v>
+        <v>0.4847395262848408</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.188444412289883</v>
+        <v>0.6215810444864616</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1342813710540582</v>
+        <v>0.09448858683060735</v>
       </c>
       <c r="H24">
-        <v>0.08134540555334269</v>
+        <v>0.2530258184193315</v>
       </c>
       <c r="I24">
-        <v>0.007618853215110244</v>
+        <v>0.140211501175191</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4087612164323104</v>
+        <v>0.5828654920809271</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.329631821181749</v>
+        <v>1.4185923225848</v>
       </c>
       <c r="C25">
-        <v>1.166751370796703</v>
+        <v>0.4076787669468445</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.752244548792362</v>
+        <v>0.5107419805693638</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1051181968605306</v>
+        <v>0.09569880217166116</v>
       </c>
       <c r="H25">
-        <v>0.08113503325185434</v>
+        <v>0.2613092496933191</v>
       </c>
       <c r="I25">
-        <v>0.0175798641516115</v>
+        <v>0.1508880435335684</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3457581152044895</v>
+        <v>0.6023175765766666</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.195784431877428</v>
+        <v>3.646691455508972</v>
       </c>
       <c r="C2">
-        <v>0.3505742835032208</v>
+        <v>0.9921374134641781</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4295085890014434</v>
+        <v>1.443744216403516</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0974250560186789</v>
+        <v>0.08787836527753257</v>
       </c>
       <c r="H2">
-        <v>0.2682436956180538</v>
+        <v>0.08336054847862329</v>
       </c>
       <c r="I2">
-        <v>0.1596043950206705</v>
+        <v>0.02783459786691134</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6201320040570124</v>
+        <v>0.3133011319452663</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.043962204355239</v>
+        <v>3.184278006687521</v>
       </c>
       <c r="C3">
-        <v>0.3116550348671012</v>
+        <v>0.8739319401631178</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3746495323167949</v>
+        <v>1.240405439402693</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.09910359483972542</v>
+        <v>0.07836267836675148</v>
       </c>
       <c r="H3">
-        <v>0.2734605452509911</v>
+        <v>0.08614638594976043</v>
       </c>
       <c r="I3">
-        <v>0.1660391165689266</v>
+        <v>0.03635267139567466</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.634349020292035</v>
+        <v>0.2985588867060045</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9503500411424284</v>
+        <v>2.900304729716311</v>
       </c>
       <c r="C4">
-        <v>0.287653993403552</v>
+        <v>0.8013519246984231</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3410483920271048</v>
+        <v>1.11775743595814</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1003810139088657</v>
+        <v>0.07344769786707417</v>
       </c>
       <c r="H4">
-        <v>0.276917597517091</v>
+        <v>0.08842484694026354</v>
       </c>
       <c r="I4">
-        <v>0.1702482771225904</v>
+        <v>0.04227979677850979</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6441244567818103</v>
+        <v>0.2926544655282157</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9121063457178593</v>
+        <v>2.784537850052686</v>
       </c>
       <c r="C5">
-        <v>0.2778478352446712</v>
+        <v>0.7717661539206517</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3273747622888834</v>
+        <v>1.068247147612809</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.1009630262687011</v>
+        <v>0.07165842246784138</v>
       </c>
       <c r="H5">
-        <v>0.2783900197801721</v>
+        <v>0.08948749260607514</v>
       </c>
       <c r="I5">
-        <v>0.1720281635846057</v>
+        <v>0.04485968868304235</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6483693889936148</v>
+        <v>0.2909799700632192</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9057502944375528</v>
+        <v>2.765311191177375</v>
       </c>
       <c r="C6">
-        <v>0.2762180092985318</v>
+        <v>0.7668526929903692</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3251053725941802</v>
+        <v>1.060052044892544</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.1010633629369373</v>
+        <v>0.0713736645217864</v>
       </c>
       <c r="H6">
-        <v>0.2786383526540455</v>
+        <v>0.08967180332092539</v>
       </c>
       <c r="I6">
-        <v>0.1723276061204075</v>
+        <v>0.045297713562927</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6490899926976894</v>
+        <v>0.2907444274921147</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9498346582125805</v>
+        <v>2.898743682759914</v>
       </c>
       <c r="C7">
-        <v>0.2875218465555065</v>
+        <v>0.8009529670335098</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3408639094686379</v>
+        <v>1.117087927038796</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1003886151081872</v>
+        <v>0.07342272724966392</v>
       </c>
       <c r="H7">
-        <v>0.2769371976825425</v>
+        <v>0.08843864603138485</v>
       </c>
       <c r="I7">
-        <v>0.1702720200653975</v>
+        <v>0.04231393761371161</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6441806494275539</v>
+        <v>0.2926289968991114</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.143519239471175</v>
+        <v>3.487240696422191</v>
       </c>
       <c r="C8">
-        <v>0.3371770321460019</v>
+        <v>0.9513750722858845</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4105750445756939</v>
+        <v>1.373122886584142</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.09795223237942707</v>
+        <v>0.08439260262537829</v>
       </c>
       <c r="H8">
-        <v>0.2699896539270981</v>
+        <v>0.08419785053317241</v>
       </c>
       <c r="I8">
-        <v>0.1617693081711322</v>
+        <v>0.03062032200954101</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.624815888511435</v>
+        <v>0.3075276028680491</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.520115483469397</v>
+        <v>4.642582777060113</v>
       </c>
       <c r="C9">
-        <v>0.4336945908939356</v>
+        <v>1.246779552228247</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5480141449565252</v>
+        <v>1.896895607487437</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.09515976530711612</v>
+        <v>0.1142171861061101</v>
       </c>
       <c r="H9">
-        <v>0.2583886878790551</v>
+        <v>0.08080668490639198</v>
       </c>
       <c r="I9">
-        <v>0.1471579894610833</v>
+        <v>0.01373496322451262</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5952181273748778</v>
+        <v>0.3646125622319119</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.794728392379511</v>
+        <v>5.494884523804672</v>
       </c>
       <c r="C10">
-        <v>0.5040546680731381</v>
+        <v>1.464771429068605</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6495604917734283</v>
+        <v>2.301516991764643</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.09435576854083649</v>
+        <v>0.1426313470503757</v>
       </c>
       <c r="H10">
-        <v>0.2511105906744504</v>
+        <v>0.08194733381566977</v>
       </c>
       <c r="I10">
-        <v>0.1376987339919873</v>
+        <v>0.005785050717057372</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5786833671548237</v>
+        <v>0.4279038766568277</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.919185743947537</v>
+        <v>5.884045312078797</v>
       </c>
       <c r="C11">
-        <v>0.5359378742575132</v>
+        <v>1.564326776511848</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6959071633556988</v>
+        <v>2.491586464363692</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0942689315619134</v>
+        <v>0.1573227110581072</v>
       </c>
       <c r="H11">
-        <v>0.248072491237707</v>
+        <v>0.08340981720955654</v>
       </c>
       <c r="I11">
-        <v>0.1336764023469681</v>
+        <v>0.003323816811638292</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5723150849017316</v>
+        <v>0.4624064194258892</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.966245252617682</v>
+        <v>6.031679018557668</v>
       </c>
       <c r="C12">
-        <v>0.54799277516139</v>
+        <v>1.602098058778438</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7134814030711993</v>
+        <v>2.564587420937769</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.0942768055061336</v>
+        <v>0.1631726429647813</v>
       </c>
       <c r="H12">
-        <v>0.2469614763392372</v>
+        <v>0.08411370407021224</v>
       </c>
       <c r="I12">
-        <v>0.1321939538289294</v>
+        <v>0.002575287805199555</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.570071282091476</v>
+        <v>0.4763925919099421</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.956113294489001</v>
+        <v>5.999870574591569</v>
       </c>
       <c r="C13">
-        <v>0.5453973747042937</v>
+        <v>1.593959871817276</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7096953904892587</v>
+        <v>2.548816922294364</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.09427328665947954</v>
+        <v>0.1618994509894875</v>
       </c>
       <c r="H13">
-        <v>0.2471989952185609</v>
+        <v>0.08395519033398102</v>
       </c>
       <c r="I13">
-        <v>0.1325114089369535</v>
+        <v>0.002728042429734012</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5705470358152951</v>
+        <v>0.4733377739668612</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.923058772988327</v>
+        <v>5.896185513989678</v>
       </c>
       <c r="C14">
-        <v>0.5369300148131515</v>
+        <v>1.567432706153795</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6973525200568105</v>
+        <v>2.497570732970829</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.09426875879282903</v>
+        <v>0.1577980447725409</v>
       </c>
       <c r="H14">
-        <v>0.2479802954854122</v>
+        <v>0.08346463115816505</v>
       </c>
       <c r="I14">
-        <v>0.1335536222810561</v>
+        <v>0.003258452304201742</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5721271137265802</v>
+        <v>0.4635380101333482</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.90280275122592</v>
+        <v>5.832712051562055</v>
       </c>
       <c r="C15">
-        <v>0.5317410708495913</v>
+        <v>1.551193905109244</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.689795303617899</v>
+        <v>2.466319728181716</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.09427131245272591</v>
+        <v>0.1553241700984316</v>
       </c>
       <c r="H15">
-        <v>0.2484640084272769</v>
+        <v>0.08318414509471239</v>
       </c>
       <c r="I15">
-        <v>0.1341973216182042</v>
+        <v>0.003607781913459007</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5731168553683403</v>
+        <v>0.4576584121637666</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.786585200693821</v>
+        <v>5.46948594256861</v>
       </c>
       <c r="C16">
-        <v>0.5019684667934712</v>
+        <v>1.458274405161205</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6465348544352167</v>
+        <v>2.28922973642166</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.09436711148332932</v>
+        <v>0.1417094863596233</v>
       </c>
       <c r="H16">
-        <v>0.251314645330794</v>
+        <v>0.08187194290187705</v>
       </c>
       <c r="I16">
-        <v>0.1379672819586979</v>
+        <v>0.005970592897299731</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5791229190759566</v>
+        <v>0.4257722654254223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.715168242037976</v>
+        <v>5.247068697047382</v>
       </c>
       <c r="C17">
-        <v>0.4836716536509016</v>
+        <v>1.401381810428632</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6200363617091682</v>
+        <v>2.182237789608919</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.09449777869713927</v>
+        <v>0.1338318370177589</v>
       </c>
       <c r="H17">
-        <v>0.2531334364681044</v>
+        <v>0.08131843202632894</v>
       </c>
       <c r="I17">
-        <v>0.1403521829916037</v>
+        <v>0.007727848297237383</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5831041982574305</v>
+        <v>0.4077417095307396</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.674047455840196</v>
+        <v>5.119272240056716</v>
       </c>
       <c r="C18">
-        <v>0.4731361888065635</v>
+        <v>1.36869433425943</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6048093965388119</v>
+        <v>2.121253215109547</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.09459914800327596</v>
+        <v>0.1294648704516916</v>
       </c>
       <c r="H18">
-        <v>0.2542052153210577</v>
+        <v>0.08108794332173375</v>
       </c>
       <c r="I18">
-        <v>0.1417503176127333</v>
+        <v>0.008846181390553376</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5855025828962255</v>
+        <v>0.3979020515393756</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.660117256599676</v>
+        <v>5.076023530631971</v>
       </c>
       <c r="C19">
-        <v>0.4695670884911465</v>
+        <v>1.357632585020667</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5996562036081485</v>
+        <v>2.100695491737369</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.09463795217316573</v>
+        <v>0.1280135202140684</v>
       </c>
       <c r="H19">
-        <v>0.2545725011459012</v>
+        <v>0.0810245806624863</v>
       </c>
       <c r="I19">
-        <v>0.1422282259248242</v>
+        <v>0.009242807476562254</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5863332058234931</v>
+        <v>0.394658841575108</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.722775236657981</v>
+        <v>5.270731315122532</v>
       </c>
       <c r="C20">
-        <v>0.4856205889574312</v>
+        <v>1.407434326949783</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.622855681963415</v>
+        <v>2.193568781933607</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.09448115128672896</v>
+        <v>0.1346532208335773</v>
       </c>
       <c r="H20">
-        <v>0.2529371658625479</v>
+        <v>0.08136815957238497</v>
       </c>
       <c r="I20">
-        <v>0.1400955710812402</v>
+        <v>0.00752952783426597</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5826691457957196</v>
+        <v>0.4096054418830164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.932769603888687</v>
+        <v>5.926632581111733</v>
       </c>
       <c r="C21">
-        <v>0.5394175938148464</v>
+        <v>1.575222293447155</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7009772610038283</v>
+        <v>2.512593741864123</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.09426897741103346</v>
+        <v>0.1589946709322305</v>
       </c>
       <c r="H21">
-        <v>0.2477497362535885</v>
+        <v>0.0836045255001352</v>
       </c>
       <c r="I21">
-        <v>0.1332463909850174</v>
+        <v>0.003097531862412128</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5716584396359679</v>
+        <v>0.466390604925266</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.069604974032814</v>
+        <v>6.356890149779474</v>
       </c>
       <c r="C22">
-        <v>0.5744684199427752</v>
+        <v>1.685308788297391</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7521735745979896</v>
+        <v>2.727165463749429</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.09436817572044021</v>
+        <v>0.176591555511699</v>
       </c>
       <c r="H22">
-        <v>0.2445894866194749</v>
+        <v>0.08594861862779624</v>
       </c>
       <c r="I22">
-        <v>0.129007574113815</v>
+        <v>0.001279726854804375</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.565440814401299</v>
+        <v>0.5089237812406964</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.996611637849242</v>
+        <v>6.12708702884504</v>
       </c>
       <c r="C23">
-        <v>0.5557713205332107</v>
+        <v>1.626508753986343</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7248357891637198</v>
+        <v>2.612029649460041</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0942932519197015</v>
+        <v>0.1670335906860672</v>
       </c>
       <c r="H23">
-        <v>0.2462550478863648</v>
+        <v>0.08461164768608143</v>
       </c>
       <c r="I23">
-        <v>0.1312480608928386</v>
+        <v>0.002145047748218887</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5686691295973674</v>
+        <v>0.4856914637130956</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.719336308000948</v>
+        <v>5.260033218836099</v>
       </c>
       <c r="C24">
-        <v>0.4847395262848408</v>
+        <v>1.404697920506237</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6215810444864616</v>
+        <v>2.188444412289897</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.09448858683060735</v>
+        <v>0.134281371054108</v>
       </c>
       <c r="H24">
-        <v>0.2530258184193315</v>
+        <v>0.08134540555334269</v>
       </c>
       <c r="I24">
-        <v>0.140211501175191</v>
+        <v>0.007618853215123567</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5828654920809271</v>
+        <v>0.4087612164323104</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.4185923225848</v>
+        <v>4.32963182118209</v>
       </c>
       <c r="C25">
-        <v>0.4076787669468445</v>
+        <v>1.166751370796931</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5107419805693638</v>
+        <v>1.752244548792376</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.09569880217166116</v>
+        <v>0.1051181968604809</v>
       </c>
       <c r="H25">
-        <v>0.2613092496933191</v>
+        <v>0.08113503325196092</v>
       </c>
       <c r="I25">
-        <v>0.1508880435335684</v>
+        <v>0.01757986415161139</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6023175765766666</v>
+        <v>0.3457581152044753</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.646691455508972</v>
+        <v>1.137322966684366</v>
       </c>
       <c r="C2">
-        <v>0.9921374134641781</v>
+        <v>0.1527745311376663</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.443744216403516</v>
+        <v>0.08558765012299574</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.08787836527753257</v>
+        <v>0.2339169416340567</v>
       </c>
       <c r="H2">
-        <v>0.08336054847862329</v>
+        <v>0.002199725775786976</v>
       </c>
       <c r="I2">
-        <v>0.02783459786691134</v>
+        <v>0.004015851464799436</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2602330282744774</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2942621229358835</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9723693009896692</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2663581459105444</v>
       </c>
       <c r="O2">
-        <v>0.3133011319452663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9878436971468858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.184278006687521</v>
+        <v>0.9913569770147603</v>
       </c>
       <c r="C3">
-        <v>0.8739319401631178</v>
+        <v>0.1482400473949426</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.240405439402693</v>
+        <v>0.07904483952505714</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.07836267836675148</v>
+        <v>0.238928313178711</v>
       </c>
       <c r="H3">
-        <v>0.08614638594976043</v>
+        <v>0.003269654965600499</v>
       </c>
       <c r="I3">
-        <v>0.03635267139567466</v>
+        <v>0.005255675424836959</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2667496414784694</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3030707274942852</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8541256387307783</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.234714826124673</v>
       </c>
       <c r="O3">
-        <v>0.2985588867060045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.011866316743891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.900304729716311</v>
+        <v>0.901394148921014</v>
       </c>
       <c r="C4">
-        <v>0.8013519246984231</v>
+        <v>0.1454753268604989</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.11775743595814</v>
+        <v>0.07499388038907284</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.07344769786707417</v>
+        <v>0.242333763266501</v>
       </c>
       <c r="H4">
-        <v>0.08842484694026354</v>
+        <v>0.004061771726278418</v>
       </c>
       <c r="I4">
-        <v>0.04227979677850979</v>
+        <v>0.006172138387054549</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2709797305304278</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.308731559825798</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7814552272642317</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2152979257910914</v>
       </c>
       <c r="O4">
-        <v>0.2926544655282157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.027785838007837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.784537850052686</v>
+        <v>0.8643105558786317</v>
       </c>
       <c r="C5">
-        <v>0.7717661539206517</v>
+        <v>0.1444769634593754</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.068247147612809</v>
+        <v>0.0732656233862663</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.07165842246784138</v>
+        <v>0.2435241519292255</v>
       </c>
       <c r="H5">
-        <v>0.08948749260607514</v>
+        <v>0.004419633253996469</v>
       </c>
       <c r="I5">
-        <v>0.04485968868304235</v>
+        <v>0.006662574905561325</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2726083131656587</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3108593628910317</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7521588603483167</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2074582430405911</v>
       </c>
       <c r="O5">
-        <v>0.2909799700632192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.0336535255638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.765311191177375</v>
+        <v>0.8577361961941108</v>
       </c>
       <c r="C6">
-        <v>0.7668526929903692</v>
+        <v>0.1444650514160841</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.060052044892544</v>
+        <v>0.07289391041691573</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0713736645217864</v>
+        <v>0.2433883651897233</v>
       </c>
       <c r="H6">
-        <v>0.08967180332092539</v>
+        <v>0.004483919159467775</v>
       </c>
       <c r="I6">
-        <v>0.045297713562927</v>
+        <v>0.006850493204404451</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2726970728257605</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3109226548909376</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7477072649023881</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2062438389960306</v>
       </c>
       <c r="O6">
-        <v>0.2907444274921147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.033540015344379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.898743682759914</v>
+        <v>0.8997671243430716</v>
       </c>
       <c r="C7">
-        <v>0.8009529670335098</v>
+        <v>0.1458837655255394</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.117087927038796</v>
+        <v>0.07474057262309231</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.07342272724966392</v>
+        <v>0.2414285573423669</v>
       </c>
       <c r="H7">
-        <v>0.08843864603138485</v>
+        <v>0.004073866995114528</v>
       </c>
       <c r="I7">
-        <v>0.04231393761371161</v>
+        <v>0.006447528074871478</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2704987634924052</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3079615802732043</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7821959775969276</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2154314037090899</v>
       </c>
       <c r="O7">
-        <v>0.2926289968991114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.024857673796241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.487240696422191</v>
+        <v>1.085556085125575</v>
       </c>
       <c r="C8">
-        <v>0.9513750722858845</v>
+        <v>0.1517798596075366</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.373122886584142</v>
+        <v>0.08303437505747269</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.08439260262537829</v>
+        <v>0.234371646671228</v>
       </c>
       <c r="H8">
-        <v>0.08419785053317241</v>
+        <v>0.002546980473592309</v>
       </c>
       <c r="I8">
-        <v>0.03062032200954101</v>
+        <v>0.004734728605383154</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2617794518811465</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2962107303229349</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.933130864345145</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2557638959299737</v>
       </c>
       <c r="O8">
-        <v>0.3075276028680491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9919606487331407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.642582777060113</v>
+        <v>1.449346871166313</v>
       </c>
       <c r="C9">
-        <v>1.246779552228247</v>
+        <v>0.1627623301912919</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.896895607487437</v>
+        <v>0.09944961922781559</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.1142171861061101</v>
+        <v>0.2248921324197326</v>
       </c>
       <c r="H9">
-        <v>0.08080668490639198</v>
+        <v>0.00067837646537805</v>
       </c>
       <c r="I9">
-        <v>0.01373496322451262</v>
+        <v>0.002260498000580036</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.24742749122926</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2766255894420446</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.226699951787595</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3345921730431627</v>
       </c>
       <c r="O9">
-        <v>0.3646125622319119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9423965389471789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.494884523804672</v>
+        <v>1.710430464793291</v>
       </c>
       <c r="C10">
-        <v>1.464771429068605</v>
+        <v>0.1729307979128762</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.301516991764643</v>
+        <v>0.1060348260234569</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.1426313470503757</v>
+        <v>0.2151422506918337</v>
       </c>
       <c r="H10">
-        <v>0.08194733381566977</v>
+        <v>0.0002964315903160042</v>
       </c>
       <c r="I10">
-        <v>0.005785050717057372</v>
+        <v>0.00147682482655398</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2356500437010993</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.259975905023575</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.447145306803094</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3754732818988629</v>
       </c>
       <c r="O10">
-        <v>0.4279038766568277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.8974620870253034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.884045312078797</v>
+        <v>1.789831805322592</v>
       </c>
       <c r="C11">
-        <v>1.564326776511848</v>
+        <v>0.1962843658827751</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.491586464363692</v>
+        <v>0.07026019672542105</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1573227110581072</v>
+        <v>0.1764975605596781</v>
       </c>
       <c r="H11">
-        <v>0.08340981720955654</v>
+        <v>0.01890385512372461</v>
       </c>
       <c r="I11">
-        <v>0.003323816811638292</v>
+        <v>0.001854543560843247</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2121122812618559</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2273427994467987</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.586351615720929</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2580119972290191</v>
       </c>
       <c r="O11">
-        <v>0.4624064194258892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7663841977615391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.031679018557668</v>
+        <v>1.802865811248182</v>
       </c>
       <c r="C12">
-        <v>1.602098058778438</v>
+        <v>0.2170008124393803</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.564587420937769</v>
+        <v>0.04811873863738469</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.1631726429647813</v>
+        <v>0.1509385649517334</v>
       </c>
       <c r="H12">
-        <v>0.08411370407021224</v>
+        <v>0.05764100702621988</v>
       </c>
       <c r="I12">
-        <v>0.002575287805199555</v>
+        <v>0.001834500267370309</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1970785889320474</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2089295754268532</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.657164193803652</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1692116876061718</v>
       </c>
       <c r="O12">
-        <v>0.4763925919099421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.680753514715299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.999870574591569</v>
+        <v>1.763651911476529</v>
       </c>
       <c r="C13">
-        <v>1.593959871817276</v>
+        <v>0.2372445778494097</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.548816922294364</v>
+        <v>0.03475671922257551</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1618994509894875</v>
+        <v>0.1322825387522357</v>
       </c>
       <c r="H13">
-        <v>0.08395519033398102</v>
+        <v>0.1134872409485581</v>
       </c>
       <c r="I13">
-        <v>0.002728042429734012</v>
+        <v>0.001884262903928402</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1867725668390783</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1988540126906519</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.680554044391641</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09795200257094194</v>
       </c>
       <c r="O13">
-        <v>0.4733377739668612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6195783370961578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.896185513989678</v>
+        <v>1.71230022789922</v>
       </c>
       <c r="C14">
-        <v>1.567432706153795</v>
+        <v>0.2517690035025026</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.497570732970829</v>
+        <v>0.03058359954249829</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1577980447725409</v>
+        <v>0.1227067303434293</v>
       </c>
       <c r="H14">
-        <v>0.08346463115816505</v>
+        <v>0.1629168578021165</v>
       </c>
       <c r="I14">
-        <v>0.003258452304201742</v>
+        <v>0.002045487429645831</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1818269222753166</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1960245778714189</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.675762923111961</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05899582374828327</v>
       </c>
       <c r="O14">
-        <v>0.4635380101333482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5888540864927556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.832712051562055</v>
+        <v>1.688337880043605</v>
       </c>
       <c r="C15">
-        <v>1.551193905109244</v>
+        <v>0.2550375573452897</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.466319728181716</v>
+        <v>0.03025231768244518</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1553241700984316</v>
+        <v>0.1212110980395966</v>
       </c>
       <c r="H15">
-        <v>0.08318414509471239</v>
+        <v>0.1754642408305074</v>
       </c>
       <c r="I15">
-        <v>0.003607781913459007</v>
+        <v>0.002228448357908697</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.18131811005561</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1964511958552642</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.664678007299926</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05084813392478083</v>
       </c>
       <c r="O15">
-        <v>0.4576584121637666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5845837868499828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.46948594256861</v>
+        <v>1.583954277023025</v>
       </c>
       <c r="C16">
-        <v>1.458274405161205</v>
+        <v>0.2460370662560791</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.28922973642166</v>
+        <v>0.03035012537749915</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1417094863596233</v>
+        <v>0.1281884912581592</v>
       </c>
       <c r="H16">
-        <v>0.08187194290187705</v>
+        <v>0.1629311666603996</v>
       </c>
       <c r="I16">
-        <v>0.005970592897299731</v>
+        <v>0.00267785118030428</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1877773597772467</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2045444764318844</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.564326960598606</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04988731626220755</v>
       </c>
       <c r="O16">
-        <v>0.4257722654254223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.612737422703745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.247068697047382</v>
+        <v>1.531190715742298</v>
       </c>
       <c r="C17">
-        <v>1.401381810428632</v>
+        <v>0.231258408917256</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.182237789608919</v>
+        <v>0.03176785786370573</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1338318370177589</v>
+        <v>0.1384001945262909</v>
       </c>
       <c r="H17">
-        <v>0.08131843202632894</v>
+        <v>0.1252682592751171</v>
       </c>
       <c r="I17">
-        <v>0.007727848297237383</v>
+        <v>0.002972598874558585</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1953004883503002</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2119960258725807</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.490211773589351</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06777752158153305</v>
       </c>
       <c r="O17">
-        <v>0.4077417095307396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6500502255186191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.119272240056716</v>
+        <v>1.517484964478427</v>
       </c>
       <c r="C18">
-        <v>1.36869433425943</v>
+        <v>0.2108394555103388</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.121253215109547</v>
+        <v>0.03899934551341744</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1294648704516916</v>
+        <v>0.1547753570756711</v>
       </c>
       <c r="H18">
-        <v>0.08108794332173375</v>
+        <v>0.0724368439097276</v>
       </c>
       <c r="I18">
-        <v>0.008846181390553376</v>
+        <v>0.002817424465114904</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.205643450262663</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2221479072350214</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.429673045614635</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1135692252000098</v>
       </c>
       <c r="O18">
-        <v>0.3979020515393756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.7063909724060764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.076023530631971</v>
+        <v>1.533820799141409</v>
       </c>
       <c r="C19">
-        <v>1.357632585020667</v>
+        <v>0.191481002479776</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.100695491737369</v>
+        <v>0.05694499574308765</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1280135202140684</v>
+        <v>0.1767635605730042</v>
       </c>
       <c r="H19">
-        <v>0.0810245806624863</v>
+        <v>0.02701722961297293</v>
       </c>
       <c r="I19">
-        <v>0.009242807476562254</v>
+        <v>0.002851738534277892</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2182106500885475</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2364591581354647</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.38748594365893</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1936117059945701</v>
       </c>
       <c r="O19">
-        <v>0.394658841575108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.779335005209667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.270731315122532</v>
+        <v>1.638175209669498</v>
       </c>
       <c r="C20">
-        <v>1.407434326949783</v>
+        <v>0.1718002864521395</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.193568781933607</v>
+        <v>0.1033941377434537</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1346532208335773</v>
+        <v>0.2146786606446085</v>
       </c>
       <c r="H20">
-        <v>0.08136815957238497</v>
+        <v>0.0003334702144854873</v>
       </c>
       <c r="I20">
-        <v>0.00752952783426597</v>
+        <v>0.002444166638788658</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2371081641210893</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2618377681370863</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.39308406779088</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3647571510560681</v>
       </c>
       <c r="O20">
-        <v>0.4096054418830164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8994280029692305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.926632581111733</v>
+        <v>1.845398641314148</v>
       </c>
       <c r="C21">
-        <v>1.575222293447155</v>
+        <v>0.1767708052055141</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.512593741864123</v>
+        <v>0.1166101170382561</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1589946709322305</v>
+        <v>0.2149515453983213</v>
       </c>
       <c r="H21">
-        <v>0.0836045255001352</v>
+        <v>1.196760187838208E-06</v>
       </c>
       <c r="I21">
-        <v>0.003097531862412128</v>
+        <v>0.001936495821531992</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2322413323712169</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2550470768818904</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.555245502362567</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4229328065466547</v>
       </c>
       <c r="O21">
-        <v>0.466390604925266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.8901192604855623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.356890149779474</v>
+        <v>1.980013793918317</v>
       </c>
       <c r="C22">
-        <v>1.685308788297391</v>
+        <v>0.180330648123963</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.727165463749429</v>
+        <v>0.1228725873120311</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.176591555511699</v>
+        <v>0.2145212156675385</v>
       </c>
       <c r="H22">
-        <v>0.08594861862779624</v>
+        <v>4.9249174206345E-05</v>
       </c>
       <c r="I22">
-        <v>0.001279726854804375</v>
+        <v>0.001479115298203659</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2287785297184399</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2501866013174645</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.661893913079723</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4518553771356153</v>
       </c>
       <c r="O22">
-        <v>0.5089237812406964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.8821477067256751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.12708702884504</v>
+        <v>1.909561790009946</v>
       </c>
       <c r="C23">
-        <v>1.626508753986343</v>
+        <v>0.1778639875785899</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.612029649460041</v>
+        <v>0.1198022287735014</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.1670335906860672</v>
+        <v>0.2157367645118455</v>
       </c>
       <c r="H23">
-        <v>0.08461164768608143</v>
+        <v>7.592293827629604E-06</v>
       </c>
       <c r="I23">
-        <v>0.002145047748218887</v>
+        <v>0.001393356568966553</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2311489424538991</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2536126127375216</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.603566747568237</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.436118579308868</v>
       </c>
       <c r="O23">
-        <v>0.4856914637130956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.8895869139433046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.260033218836099</v>
+        <v>1.640233293244847</v>
       </c>
       <c r="C24">
-        <v>1.404697920506237</v>
+        <v>0.1695084877939124</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.188444412289897</v>
+        <v>0.1077107100912684</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.134281371054108</v>
+        <v>0.2195764970531968</v>
       </c>
       <c r="H24">
-        <v>0.08134540555334269</v>
+        <v>0.0001914259215817227</v>
       </c>
       <c r="I24">
-        <v>0.007618853215123567</v>
+        <v>0.00192629427875346</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.239788751748307</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2658301201180713</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.385064474204967</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3771241594523502</v>
       </c>
       <c r="O24">
-        <v>0.4087612164323104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9154242469687972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.32963182118209</v>
+        <v>1.34910652663666</v>
       </c>
       <c r="C25">
-        <v>1.166751370796931</v>
+        <v>0.1605811546208429</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.752244548792376</v>
+        <v>0.09462071464524513</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1051181968604809</v>
+        <v>0.2255323316413538</v>
       </c>
       <c r="H25">
-        <v>0.08113503325196092</v>
+        <v>0.001059177975772374</v>
       </c>
       <c r="I25">
-        <v>0.01757986415161139</v>
+        <v>0.003238276423318531</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2502348221456572</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2803221877869451</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.149394454714951</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3136801635347695</v>
       </c>
       <c r="O25">
-        <v>0.3457581152044753</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9494776254236825</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.137322966684366</v>
+        <v>1.132755569390099</v>
       </c>
       <c r="C2">
-        <v>0.1527745311376663</v>
+        <v>0.1389635578179451</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08558765012299574</v>
+        <v>0.08308407805022711</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2339169416340567</v>
+        <v>0.2036703657965937</v>
       </c>
       <c r="H2">
-        <v>0.002199725775786976</v>
+        <v>0.001604491260951968</v>
       </c>
       <c r="I2">
-        <v>0.004015851464799436</v>
+        <v>0.002925700878938287</v>
       </c>
       <c r="J2">
-        <v>0.2602330282744774</v>
+        <v>0.274285369365046</v>
       </c>
       <c r="K2">
-        <v>0.2942621229358835</v>
+        <v>0.2719759640337998</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1327649833960294</v>
       </c>
       <c r="M2">
-        <v>0.9723693009896692</v>
+        <v>0.07631317762623357</v>
       </c>
       <c r="N2">
-        <v>0.2663581459105444</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9840585038325003</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.272070793522758</v>
       </c>
       <c r="Q2">
-        <v>0.9878436971468858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9301795203034828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9913569770147603</v>
+        <v>0.9895879834803338</v>
       </c>
       <c r="C3">
-        <v>0.1482400473949426</v>
+        <v>0.1326147579040438</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07904483952505714</v>
+        <v>0.07711378327015694</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.238928313178711</v>
+        <v>0.210377722282864</v>
       </c>
       <c r="H3">
-        <v>0.003269654965600499</v>
+        <v>0.002467459996185195</v>
       </c>
       <c r="I3">
-        <v>0.005255675424836959</v>
+        <v>0.003826863441759976</v>
       </c>
       <c r="J3">
-        <v>0.2667496414784694</v>
+        <v>0.2791598412027234</v>
       </c>
       <c r="K3">
-        <v>0.3030707274942852</v>
+        <v>0.2809655177471289</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1381803704265678</v>
       </c>
       <c r="M3">
-        <v>0.8541256387307783</v>
+        <v>0.07922790447793959</v>
       </c>
       <c r="N3">
-        <v>0.234714826124673</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8629928256790436</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2400071687371224</v>
       </c>
       <c r="Q3">
-        <v>1.011866316743891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9566168929466485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.901394148921014</v>
+        <v>0.9012555618119507</v>
       </c>
       <c r="C4">
-        <v>0.1454753268604989</v>
+        <v>0.1287824613991546</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07499388038907284</v>
+        <v>0.07340546112523327</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.242333763266501</v>
+        <v>0.2148328091817007</v>
       </c>
       <c r="H4">
-        <v>0.004061771726278418</v>
+        <v>0.003114150952737371</v>
       </c>
       <c r="I4">
-        <v>0.006172138387054549</v>
+        <v>0.004513525051390577</v>
       </c>
       <c r="J4">
-        <v>0.2709797305304278</v>
+        <v>0.2822627440341847</v>
       </c>
       <c r="K4">
-        <v>0.308731559825798</v>
+        <v>0.2866895541206151</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1417290205099651</v>
       </c>
       <c r="M4">
-        <v>0.7814552272642317</v>
+        <v>0.08145159352302356</v>
       </c>
       <c r="N4">
-        <v>0.2152979257910914</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7886406167629332</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2203459425142285</v>
       </c>
       <c r="Q4">
-        <v>1.027785838007837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9738216912703734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8643105558786317</v>
+        <v>0.8648231081250231</v>
       </c>
       <c r="C5">
-        <v>0.1444769634593754</v>
+        <v>0.1273697482313096</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0732656233862663</v>
+        <v>0.07181705848959652</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.2435241519292255</v>
+        <v>0.21647210002671</v>
       </c>
       <c r="H5">
-        <v>0.004419633253996469</v>
+        <v>0.003407976302614413</v>
       </c>
       <c r="I5">
-        <v>0.006662574905561325</v>
+        <v>0.004916981967014067</v>
       </c>
       <c r="J5">
-        <v>0.2726083131656587</v>
+        <v>0.2834027214189341</v>
       </c>
       <c r="K5">
-        <v>0.3108593628910317</v>
+        <v>0.2888480854995272</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1430972819028025</v>
       </c>
       <c r="M5">
-        <v>0.7521588603483167</v>
+        <v>0.08243110974997192</v>
       </c>
       <c r="N5">
-        <v>0.2074582430405911</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.758665095373857</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2124083712872675</v>
       </c>
       <c r="Q5">
-        <v>1.0336535255638</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9802111577190544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8577361961941108</v>
+        <v>0.8583655938892889</v>
       </c>
       <c r="C6">
-        <v>0.1444650514160841</v>
+        <v>0.1273012328096357</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07289391041691573</v>
+        <v>0.07147141521660316</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.2433883651897233</v>
+        <v>0.2164350148548415</v>
       </c>
       <c r="H6">
-        <v>0.004483919159467775</v>
+        <v>0.003460960693618564</v>
       </c>
       <c r="I6">
-        <v>0.006850493204404451</v>
+        <v>0.005106275686353356</v>
       </c>
       <c r="J6">
-        <v>0.2726970728257605</v>
+        <v>0.2834086049124025</v>
       </c>
       <c r="K6">
-        <v>0.3109226548909376</v>
+        <v>0.288936600911283</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.143165344579165</v>
       </c>
       <c r="M6">
-        <v>0.7477072649023881</v>
+        <v>0.08255672958821281</v>
       </c>
       <c r="N6">
-        <v>0.2062438389960306</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7540927000976438</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2111755592218714</v>
       </c>
       <c r="Q6">
-        <v>1.033540015344379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9802391422802614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8997671243430716</v>
+        <v>0.8998100373874252</v>
       </c>
       <c r="C7">
-        <v>0.1458837655255394</v>
+        <v>0.1291138121904254</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07474057262309231</v>
+        <v>0.07318151163767084</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2414285573423669</v>
+        <v>0.2152274528356024</v>
       </c>
       <c r="H7">
-        <v>0.004073866995114528</v>
+        <v>0.003127470520687847</v>
       </c>
       <c r="I7">
-        <v>0.006447528074871478</v>
+        <v>0.004834060920646088</v>
       </c>
       <c r="J7">
-        <v>0.2704987634924052</v>
+        <v>0.2796571219952568</v>
       </c>
       <c r="K7">
-        <v>0.3079615802732043</v>
+        <v>0.2856924543654422</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1411561980640812</v>
       </c>
       <c r="M7">
-        <v>0.7821959775969276</v>
+        <v>0.08128036489970158</v>
       </c>
       <c r="N7">
-        <v>0.2154314037090899</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.789139071031542</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2204261757803181</v>
       </c>
       <c r="Q7">
-        <v>1.024857673796241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9694629856864552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.085556085125575</v>
+        <v>1.08249563703049</v>
       </c>
       <c r="C8">
-        <v>0.1517798596075366</v>
+        <v>0.1370399393686199</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08303437505747269</v>
+        <v>0.08080873889798923</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.234371646671228</v>
+        <v>0.2089028325298656</v>
       </c>
       <c r="H8">
-        <v>0.002546980473592309</v>
+        <v>0.001890566075750222</v>
       </c>
       <c r="I8">
-        <v>0.004734728605383154</v>
+        <v>0.003596635629072864</v>
       </c>
       <c r="J8">
-        <v>0.2617794518811465</v>
+        <v>0.2686125762462055</v>
       </c>
       <c r="K8">
-        <v>0.2962107303229349</v>
+        <v>0.2731795411450886</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1336403842562053</v>
       </c>
       <c r="M8">
-        <v>0.933130864345145</v>
+        <v>0.07677295593603795</v>
       </c>
       <c r="N8">
-        <v>0.2557638959299737</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9431094596787659</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2611696663985441</v>
       </c>
       <c r="Q8">
-        <v>0.9919606487331407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.930241740270894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.449346871166313</v>
+        <v>1.438888408148614</v>
       </c>
       <c r="C9">
-        <v>0.1627623301912919</v>
+        <v>0.1526771886607463</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09944961922781559</v>
+        <v>0.09575751124090104</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.2248921324197326</v>
+        <v>0.1962693294907112</v>
       </c>
       <c r="H9">
-        <v>0.00067837646537805</v>
+        <v>0.0004265316534567409</v>
       </c>
       <c r="I9">
-        <v>0.002260498000580036</v>
+        <v>0.001784900909788334</v>
       </c>
       <c r="J9">
-        <v>0.24742749122926</v>
+        <v>0.2560001822766687</v>
       </c>
       <c r="K9">
-        <v>0.2766255894420446</v>
+        <v>0.2526174462883368</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1219115126789134</v>
       </c>
       <c r="M9">
-        <v>1.226699951787595</v>
+        <v>0.07190420780348283</v>
       </c>
       <c r="N9">
-        <v>0.3345921730431627</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.243803893622754</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3410808061173043</v>
       </c>
       <c r="Q9">
-        <v>0.9423965389471789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8721037904186346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.710430464793291</v>
+        <v>1.695553362974096</v>
       </c>
       <c r="C10">
-        <v>0.1729307979128762</v>
+        <v>0.1659314990364749</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1060348260234569</v>
+        <v>0.1015863424750663</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.2151422506918337</v>
+        <v>0.1922745608232432</v>
       </c>
       <c r="H10">
-        <v>0.0002964315903160042</v>
+        <v>0.0002265656430093799</v>
       </c>
       <c r="I10">
-        <v>0.00147682482655398</v>
+        <v>0.001381938682242456</v>
       </c>
       <c r="J10">
-        <v>0.2356500437010993</v>
+        <v>0.2356151989616144</v>
       </c>
       <c r="K10">
-        <v>0.259975905023575</v>
+        <v>0.2344313298103984</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1129688614411446</v>
       </c>
       <c r="M10">
-        <v>1.447145306803094</v>
+        <v>0.06871944476552372</v>
       </c>
       <c r="N10">
-        <v>0.3754732818988629</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.467834740897587</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3822750856986943</v>
       </c>
       <c r="Q10">
-        <v>0.8974620870253034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8140712718172978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.789831805322592</v>
+        <v>1.779956692718912</v>
       </c>
       <c r="C11">
-        <v>0.1962843658827751</v>
+        <v>0.1890071612591271</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07026019672542105</v>
+        <v>0.06740681426633444</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1764975605596781</v>
+        <v>0.1714352392020402</v>
       </c>
       <c r="H11">
-        <v>0.01890385512372461</v>
+        <v>0.01882660237486888</v>
       </c>
       <c r="I11">
-        <v>0.001854543560843247</v>
+        <v>0.001942866817723043</v>
       </c>
       <c r="J11">
-        <v>0.2121122812618559</v>
+        <v>0.2067506077785772</v>
       </c>
       <c r="K11">
-        <v>0.2273427994467987</v>
+        <v>0.2061181412886777</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1030315813215252</v>
       </c>
       <c r="M11">
-        <v>1.586351615720929</v>
+        <v>0.05841976865675136</v>
       </c>
       <c r="N11">
-        <v>0.2580119972290191</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.601175110714962</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2625321962261182</v>
       </c>
       <c r="Q11">
-        <v>0.7663841977615391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.6879344219294268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.802865811248182</v>
+        <v>1.797700210688362</v>
       </c>
       <c r="C12">
-        <v>0.2170008124393803</v>
+        <v>0.2079945521358013</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04811873863738469</v>
+        <v>0.04625094106648575</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.1509385649517334</v>
+        <v>0.1523094755769669</v>
       </c>
       <c r="H12">
-        <v>0.05764100702621988</v>
+        <v>0.05754798714033882</v>
       </c>
       <c r="I12">
-        <v>0.001834500267370309</v>
+        <v>0.001933853629136451</v>
       </c>
       <c r="J12">
-        <v>0.1970785889320474</v>
+        <v>0.198607081275997</v>
       </c>
       <c r="K12">
-        <v>0.2089295754268532</v>
+        <v>0.192075186783911</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09901001694313818</v>
       </c>
       <c r="M12">
-        <v>1.657164193803652</v>
+        <v>0.05229520540858879</v>
       </c>
       <c r="N12">
-        <v>0.1692116876061718</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.666705228057197</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1722784808131124</v>
       </c>
       <c r="Q12">
-        <v>0.680753514715299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6142087826959255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.763651911476529</v>
+        <v>1.762852127674961</v>
       </c>
       <c r="C13">
-        <v>0.2372445778494097</v>
+        <v>0.2259365733253134</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03475671922257551</v>
+        <v>0.03349368120797003</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1322825387522357</v>
+        <v>0.1307955090177195</v>
       </c>
       <c r="H13">
-        <v>0.1134872409485581</v>
+        <v>0.1133633718794442</v>
       </c>
       <c r="I13">
-        <v>0.001884262903928402</v>
+        <v>0.001938629901730771</v>
       </c>
       <c r="J13">
-        <v>0.1867725668390783</v>
+        <v>0.1975098602215013</v>
       </c>
       <c r="K13">
-        <v>0.1988540126906519</v>
+        <v>0.1861312731250723</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09776006782126823</v>
       </c>
       <c r="M13">
-        <v>1.680554044391641</v>
+        <v>0.04886585946712607</v>
       </c>
       <c r="N13">
-        <v>0.09795200257094194</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.685574004212725</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1001013897862535</v>
       </c>
       <c r="Q13">
-        <v>0.6195783370961578</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5701835951672045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.71230022789922</v>
+        <v>1.714398358838224</v>
       </c>
       <c r="C14">
-        <v>0.2517690035025026</v>
+        <v>0.238555072283944</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03058359954249829</v>
+        <v>0.0295529970198595</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1227067303434293</v>
+        <v>0.1164999548731629</v>
       </c>
       <c r="H14">
-        <v>0.1629168578021165</v>
+        <v>0.1627624051244965</v>
       </c>
       <c r="I14">
-        <v>0.002045487429645831</v>
+        <v>0.002055425367975872</v>
       </c>
       <c r="J14">
-        <v>0.1818269222753166</v>
+        <v>0.1977867236851143</v>
       </c>
       <c r="K14">
-        <v>0.1960245778714189</v>
+        <v>0.1854650619583105</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09784638865894468</v>
       </c>
       <c r="M14">
-        <v>1.675762923111961</v>
+        <v>0.04785695068177409</v>
       </c>
       <c r="N14">
-        <v>0.05899582374828327</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.677937422794372</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06074032182333156</v>
       </c>
       <c r="Q14">
-        <v>0.5888540864927556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5515785827757576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.688337880043605</v>
+        <v>1.691087349171966</v>
       </c>
       <c r="C15">
-        <v>0.2550375573452897</v>
+        <v>0.2413778524022518</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03025231768244518</v>
+        <v>0.02926383476124095</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1212110980395966</v>
+        <v>0.1129763459515907</v>
       </c>
       <c r="H15">
-        <v>0.1754642408305074</v>
+        <v>0.1752946715442931</v>
       </c>
       <c r="I15">
-        <v>0.002228448357908697</v>
+        <v>0.002235030740227018</v>
       </c>
       <c r="J15">
-        <v>0.18131811005561</v>
+        <v>0.1982256803673863</v>
       </c>
       <c r="K15">
-        <v>0.1964511958552642</v>
+        <v>0.1862539819249465</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09805981160224553</v>
       </c>
       <c r="M15">
-        <v>1.664678007299926</v>
+        <v>0.04800949192744042</v>
       </c>
       <c r="N15">
-        <v>0.05084813392478083</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.666324139108184</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05254067241113347</v>
       </c>
       <c r="Q15">
-        <v>0.5845837868499828</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5506594823662958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.583954277023025</v>
+        <v>1.586262295589648</v>
       </c>
       <c r="C16">
-        <v>0.2460370662560791</v>
+        <v>0.2329441641945209</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03035012537749915</v>
+        <v>0.02945270470865191</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1281884912581592</v>
+        <v>0.112849309348773</v>
       </c>
       <c r="H16">
-        <v>0.1629311666603996</v>
+        <v>0.1626740168225496</v>
       </c>
       <c r="I16">
-        <v>0.00267785118030428</v>
+        <v>0.002560423845765492</v>
       </c>
       <c r="J16">
-        <v>0.1877773597772467</v>
+        <v>0.2054851040915282</v>
       </c>
       <c r="K16">
-        <v>0.2045444764318844</v>
+        <v>0.1937174654408862</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09954024974089437</v>
       </c>
       <c r="M16">
-        <v>1.564326960598606</v>
+        <v>0.05107045570371027</v>
       </c>
       <c r="N16">
-        <v>0.04988731626220755</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.567492525000603</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05183502884488433</v>
       </c>
       <c r="Q16">
-        <v>0.612737422703745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5842961692934736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.531190715742298</v>
+        <v>1.531876682469544</v>
       </c>
       <c r="C17">
-        <v>0.231258408917256</v>
+        <v>0.2193398724226654</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03176785786370573</v>
+        <v>0.03082228917767038</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1384001945262909</v>
+        <v>0.1198237883224014</v>
       </c>
       <c r="H17">
-        <v>0.1252682592751171</v>
+        <v>0.1249578123190531</v>
       </c>
       <c r="I17">
-        <v>0.002972598874558585</v>
+        <v>0.002784146349426919</v>
       </c>
       <c r="J17">
-        <v>0.1953004883503002</v>
+        <v>0.2140105832710262</v>
       </c>
       <c r="K17">
-        <v>0.2119960258725807</v>
+        <v>0.2001790362506715</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1012281967288039</v>
       </c>
       <c r="M17">
-        <v>1.490211773589351</v>
+        <v>0.05374169568326392</v>
       </c>
       <c r="N17">
-        <v>0.06777752158153305</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.495672536939708</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0701243550083035</v>
       </c>
       <c r="Q17">
-        <v>0.6500502255186191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6208047922451811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.517484964478427</v>
+        <v>1.515020616034661</v>
       </c>
       <c r="C18">
-        <v>0.2108394555103388</v>
+        <v>0.2006718968005572</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03899934551341744</v>
+        <v>0.03770678365566305</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1547753570756711</v>
+        <v>0.1331714641528166</v>
       </c>
       <c r="H18">
-        <v>0.0724368439097276</v>
+        <v>0.07211743832561979</v>
       </c>
       <c r="I18">
-        <v>0.002817424465114904</v>
+        <v>0.002557912625778869</v>
       </c>
       <c r="J18">
-        <v>0.205643450262663</v>
+        <v>0.2242420858825227</v>
       </c>
       <c r="K18">
-        <v>0.2221479072350214</v>
+        <v>0.2085504365151567</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1040890519188591</v>
       </c>
       <c r="M18">
-        <v>1.429673045614635</v>
+        <v>0.05698402408518932</v>
       </c>
       <c r="N18">
-        <v>0.1135692252000098</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.438767563337166</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1166833717501206</v>
       </c>
       <c r="Q18">
-        <v>0.7063909724060764</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.671265571746666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.533820799141409</v>
+        <v>1.527129922912877</v>
       </c>
       <c r="C19">
-        <v>0.191481002479776</v>
+        <v>0.1829204952251757</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05694499574308765</v>
+        <v>0.05482354171490655</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1767635605730042</v>
+        <v>0.1514896037489564</v>
       </c>
       <c r="H19">
-        <v>0.02701722961297293</v>
+        <v>0.0267418895941347</v>
       </c>
       <c r="I19">
-        <v>0.002851738534277892</v>
+        <v>0.002643315219726716</v>
       </c>
       <c r="J19">
-        <v>0.2182106500885475</v>
+        <v>0.2354414646576188</v>
       </c>
       <c r="K19">
-        <v>0.2364591581354647</v>
+        <v>0.2198670845246014</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1083427454246984</v>
       </c>
       <c r="M19">
-        <v>1.38748594365893</v>
+        <v>0.06125218472179306</v>
       </c>
       <c r="N19">
-        <v>0.1936117059945701</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.401023343225773</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.197974610460065</v>
       </c>
       <c r="Q19">
-        <v>0.779335005209667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.733386756713827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.638175209669498</v>
+        <v>1.6240960776409</v>
       </c>
       <c r="C20">
-        <v>0.1718002864521395</v>
+        <v>0.1646042796551441</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1033941377434537</v>
+        <v>0.0991136597915272</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2146786606446085</v>
+        <v>0.1860207740275115</v>
       </c>
       <c r="H20">
-        <v>0.0003334702144854873</v>
+        <v>0.0002200418851634467</v>
       </c>
       <c r="I20">
-        <v>0.002444166638788658</v>
+        <v>0.00241033588606232</v>
       </c>
       <c r="J20">
-        <v>0.2371081641210893</v>
+        <v>0.2455536693891673</v>
       </c>
       <c r="K20">
-        <v>0.2618377681370863</v>
+        <v>0.2379505841913527</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1147655264972824</v>
       </c>
       <c r="M20">
-        <v>1.39308406779088</v>
+        <v>0.06899679269912795</v>
       </c>
       <c r="N20">
-        <v>0.3647571510560681</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.413504919437884</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3716082355834089</v>
       </c>
       <c r="Q20">
-        <v>0.8994280029692305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8257696466145887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.845398641314148</v>
+        <v>1.829613650618455</v>
       </c>
       <c r="C21">
-        <v>0.1767708052055141</v>
+        <v>0.1698616750397903</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1166101170382561</v>
+        <v>0.1118042272443311</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2149515453983213</v>
+        <v>0.2157888871847433</v>
       </c>
       <c r="H21">
-        <v>1.196760187838208E-06</v>
+        <v>4.718724313290679E-06</v>
       </c>
       <c r="I21">
-        <v>0.001936495821531992</v>
+        <v>0.002139036570873998</v>
       </c>
       <c r="J21">
-        <v>0.2322413323712169</v>
+        <v>0.2100344258718341</v>
       </c>
       <c r="K21">
-        <v>0.2550470768818904</v>
+        <v>0.2242057095948233</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1085308806200276</v>
       </c>
       <c r="M21">
-        <v>1.555245502362567</v>
+        <v>0.06684513486329813</v>
       </c>
       <c r="N21">
-        <v>0.4229328065466547</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.575318780022769</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4295757593517067</v>
       </c>
       <c r="Q21">
-        <v>0.8901192604855623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.7750326822488063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.980013793918317</v>
+        <v>1.963591720331863</v>
       </c>
       <c r="C22">
-        <v>0.180330648123963</v>
+        <v>0.1734502088364707</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1228725873120311</v>
+        <v>0.1178871220201501</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.2145212156675385</v>
+        <v>0.2404195575029888</v>
       </c>
       <c r="H22">
-        <v>4.9249174206345E-05</v>
+        <v>8.95523159487599E-05</v>
       </c>
       <c r="I22">
-        <v>0.001479115298203659</v>
+        <v>0.001723696536091168</v>
       </c>
       <c r="J22">
-        <v>0.2287785297184399</v>
+        <v>0.1964837822200631</v>
       </c>
       <c r="K22">
-        <v>0.2501866013174645</v>
+        <v>0.2147457838585058</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1046263506725866</v>
       </c>
       <c r="M22">
-        <v>1.661893913079723</v>
+        <v>0.06533851034081728</v>
       </c>
       <c r="N22">
-        <v>0.4518553771356153</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.681129078546405</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4581608821285386</v>
       </c>
       <c r="Q22">
-        <v>0.8821477067256751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.7389163126462108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.909561790009946</v>
+        <v>1.89303390912238</v>
       </c>
       <c r="C23">
-        <v>0.1778639875785899</v>
+        <v>0.1711630596857106</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1198022287735014</v>
+        <v>0.1148325105781893</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.2157367645118455</v>
+        <v>0.2239404417219859</v>
       </c>
       <c r="H23">
-        <v>7.592293827629604E-06</v>
+        <v>3.224364330245422E-05</v>
       </c>
       <c r="I23">
-        <v>0.001393356568966553</v>
+        <v>0.001556894846800105</v>
       </c>
       <c r="J23">
-        <v>0.2311489424538991</v>
+        <v>0.2042924807772435</v>
       </c>
       <c r="K23">
-        <v>0.2536126127375216</v>
+        <v>0.2210297010337747</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1070451039104343</v>
       </c>
       <c r="M23">
-        <v>1.603566747568237</v>
+        <v>0.06670304686421957</v>
       </c>
       <c r="N23">
-        <v>0.436118579308868</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.623839084610523</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4427327455398711</v>
       </c>
       <c r="Q23">
-        <v>0.8895869139433046</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.7644609747412972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.640233293244847</v>
+        <v>1.62564904376282</v>
       </c>
       <c r="C24">
-        <v>0.1695084877939124</v>
+        <v>0.162136961679785</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1077107100912684</v>
+        <v>0.1032376843387546</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2195764970531968</v>
+        <v>0.1900725464860074</v>
       </c>
       <c r="H24">
-        <v>0.0001914259215817227</v>
+        <v>8.577480931859505E-05</v>
       </c>
       <c r="I24">
-        <v>0.00192629427875346</v>
+        <v>0.001796513969334335</v>
       </c>
       <c r="J24">
-        <v>0.239788751748307</v>
+        <v>0.2480703109793794</v>
       </c>
       <c r="K24">
-        <v>0.2658301201180713</v>
+        <v>0.2412106831593963</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1159729295472456</v>
       </c>
       <c r="M24">
-        <v>1.385064474204967</v>
+        <v>0.07023525006284714</v>
       </c>
       <c r="N24">
-        <v>0.3771241594523502</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.405946546506954</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3841905420906926</v>
       </c>
       <c r="Q24">
-        <v>0.9154242469687972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8396647233749093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.34910652663666</v>
+        <v>1.340583910336107</v>
       </c>
       <c r="C25">
-        <v>0.1605811546208429</v>
+        <v>0.1494678891340229</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09462071464524513</v>
+        <v>0.09132308993716975</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2255323316413538</v>
+        <v>0.1961139557250391</v>
       </c>
       <c r="H25">
-        <v>0.001059177975772374</v>
+        <v>0.0007126577345851759</v>
       </c>
       <c r="I25">
-        <v>0.003238276423318531</v>
+        <v>0.002682856679103729</v>
       </c>
       <c r="J25">
-        <v>0.2502348221456572</v>
+        <v>0.2612521078628944</v>
       </c>
       <c r="K25">
-        <v>0.2803221877869451</v>
+        <v>0.2571710661665385</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1245403878904803</v>
       </c>
       <c r="M25">
-        <v>1.149394454714951</v>
+        <v>0.07257923904577179</v>
       </c>
       <c r="N25">
-        <v>0.3136801635347695</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.164799119385265</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3199208615370708</v>
       </c>
       <c r="Q25">
-        <v>0.9494776254236825</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8843257828560382</v>
       </c>
     </row>
   </sheetData>
